--- a/src/utils/i18n/trans.xlsx
+++ b/src/utils/i18n/trans.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1148">
   <si>
     <t>Key</t>
   </si>
@@ -285,7 +285,7 @@
     <t>D:\xampp\htdocs\Vn4React\src\components\FieldForm\image\GoogleDrive/ListMenuMouseRightFile.js: 140</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\page\PostType\components\CreateData/Header.js: 492</t>
+    <t>D:\xampp\htdocs\Vn4React\src\page\PostType\components\CreateData/Header.js: 493</t>
   </si>
   <si>
     <t>View Detail</t>
@@ -432,6 +432,12 @@
     <t>D:\xampp\htdocs\Vn4React\src\components\FieldForm\relationship_onetomany_show/Form.js: 85</t>
   </si>
   <si>
+    <t>Clean URLs, also sometimes referred to as RESTful URLs, user-friendly URLs, pretty URLs or search engine-friendly URLs</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\components\FieldForm\slug/Form.js: 18</t>
+  </si>
+  <si>
     <t>Nothing To Display.</t>
   </si>
   <si>
@@ -453,13 +459,16 @@
     <t>Manage your Account</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\layout\Header/Account.js: 130</t>
+    <t>D:\xampp\htdocs\Vn4React\src\layout\Header/Account.js: 135</t>
   </si>
   <si>
     <t>Appearance</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\layout\Header/Account.js: 143</t>
+    <t>D:\xampp\htdocs\Vn4React\src\layout\Header/Account.js: 147</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\layout\Header/Account.js: 308</t>
   </si>
   <si>
     <t>D:\xampp\htdocs\Vn4React\src\page\OnePage\Appearance/Appearance.js: 53</t>
@@ -483,43 +492,61 @@
     <t>Language</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\layout\Header/Account.js: 152</t>
+    <t>D:\xampp\htdocs\Vn4React\src\layout\Header/Account.js: 156</t>
   </si>
   <si>
     <t>Help &amp; Support</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\layout\Header/Account.js: 163</t>
+    <t>D:\xampp\htdocs\Vn4React\src\layout\Header/Account.js: 167</t>
   </si>
   <si>
     <t>Send feedback</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\layout\Header/Account.js: 173</t>
+    <t>D:\xampp\htdocs\Vn4React\src\layout\Header/Account.js: 177</t>
   </si>
   <si>
     <t>Help us improve the new CMS</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\layout\Header/Account.js: 174</t>
+    <t>D:\xampp\htdocs\Vn4React\src\layout\Header/Account.js: 178</t>
   </si>
   <si>
     <t>Sign out</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\layout\Header/Account.js: 184</t>
+    <t>D:\xampp\htdocs\Vn4React\src\layout\Header/Account.js: 188</t>
   </si>
   <si>
     <t>Choose your language</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\layout\Header/Account.js: 229</t>
+    <t>D:\xampp\htdocs\Vn4React\src\layout\Header/Account.js: 231</t>
+  </si>
+  <si>
+    <t>Setting applies to this browser only</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\layout\Header/Account.js: 317</t>
   </si>
   <si>
     <t>Account</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\layout\Header/Account.js: 282</t>
+    <t>D:\xampp\htdocs\Vn4React\src\layout\Header/Account.js: 381</t>
+  </si>
+  <si>
+    <t>Dark theme</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\layout\Header/Account.js: 507</t>
+  </si>
+  <si>
+    <t>Light theme</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\layout\Header/Account.js: 511</t>
   </si>
   <si>
     <t>Notification</t>
@@ -939,7 +966,7 @@
     <t>D:\xampp\htdocs\Vn4React\src\page\PostType\components\CreateData/CreateData.js: 89</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\page\PostType\components\CreateData/Header.js: 511</t>
+    <t>D:\xampp\htdocs\Vn4React\src\page\PostType\components\CreateData/Header.js: 513</t>
   </si>
   <si>
     <t>D:\xampp\htdocs\Vn4React\src\page\PostType\components\ShowData/Header.js: 38</t>
@@ -1893,7 +1920,7 @@
     <t>Update</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\page\PostType\components\CreateData/Header.js: 500</t>
+    <t>D:\xampp\htdocs\Vn4React\src\page\PostType\components\CreateData/Header.js: 502</t>
   </si>
   <si>
     <t>D:\xampp\htdocs\Vn4React\src\page\PostType\components\CreateData/PostTypeInfo.js: 68</t>
@@ -2196,6 +2223,9 @@
     <t>Bạn cần tạo phân loại trước khi tạo {{post_type}}</t>
   </si>
   <si>
+    <t>Clean URL, đôi khi còn được gọi là URL RESTful, URL thân thiện với người dùng, URL đẹp hoặc URL thân thiện với công cụ tìm kiếm</t>
+  </si>
+  <si>
     <t>无内容显示。</t>
   </si>
   <si>
@@ -2268,10 +2298,19 @@
     <t>Chọn ngôn ngữ của bạn</t>
   </si>
   <si>
+    <t>Tùy chọn cài đặt chỉ áp dụng cho trình duyệt này</t>
+  </si>
+  <si>
     <t>帐户</t>
   </si>
   <si>
     <t>Tài khoản</t>
+  </si>
+  <si>
+    <t>Giao diện tối</t>
+  </si>
+  <si>
+    <t>Giao diện sáng</t>
   </si>
   <si>
     <t>通知</t>
@@ -3804,10 +3843,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C390"/>
+  <dimension ref="A1:C395"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A388" sqref="A388:B390"/>
+      <selection activeCell="A393" sqref="A393:B395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4503,27 +4542,27 @@
         <v>140</v>
       </c>
       <c r="B100" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B101" t="s">
         <v>141</v>
       </c>
-      <c r="B101" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="2"/>
+      <c r="A102" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="B102" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="A103" s="2"/>
       <c r="B103" t="s">
         <v>145</v>
       </c>
@@ -4537,51 +4576,49 @@
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="2"/>
+      <c r="A105" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="B105" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2"/>
       <c r="B106" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2"/>
       <c r="B107" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2"/>
       <c r="B108" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="2" t="s">
-        <v>152</v>
-      </c>
+      <c r="A109" s="2"/>
       <c r="B109" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="A110" s="2"/>
       <c r="B110" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B111" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -4589,91 +4626,93 @@
         <v>156</v>
       </c>
       <c r="B112" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B113" t="s">
         <v>158</v>
-      </c>
-      <c r="B113" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B114" t="s">
         <v>160</v>
-      </c>
-      <c r="B114" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B115" t="s">
         <v>162</v>
-      </c>
-      <c r="B115" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B116" t="s">
         <v>164</v>
-      </c>
-      <c r="B116" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B117" t="s">
         <v>166</v>
-      </c>
-      <c r="B117" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B118" t="s">
         <v>168</v>
-      </c>
-      <c r="B118" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B119" t="s">
         <v>170</v>
-      </c>
-      <c r="B119" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B120" t="s">
         <v>172</v>
-      </c>
-      <c r="B120" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B121" t="s">
         <v>174</v>
-      </c>
-      <c r="B121" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B122" t="s">
         <v>176</v>
       </c>
-      <c r="B122" t="s">
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="2"/>
       <c r="B123" t="s">
         <v>178</v>
       </c>
@@ -4695,181 +4734,179 @@
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="2"/>
+      <c r="A126" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="B126" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B127" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2"/>
       <c r="B128" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B129" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="2"/>
+      <c r="A130" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="B130" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="2" t="s">
-        <v>190</v>
-      </c>
+      <c r="A131" s="2"/>
       <c r="B131" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="2"/>
+      <c r="A132" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="B132" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="2" t="s">
-        <v>193</v>
-      </c>
+      <c r="A133" s="2"/>
       <c r="B133" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="2"/>
+      <c r="A134" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="B134" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="2" t="s">
-        <v>196</v>
-      </c>
+      <c r="A135" s="2"/>
       <c r="B135" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="2"/>
+      <c r="A136" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="B136" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="2" t="s">
-        <v>199</v>
-      </c>
+      <c r="A137" s="2"/>
       <c r="B137" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="2"/>
+      <c r="A138" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="B138" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="2" t="s">
-        <v>202</v>
-      </c>
+      <c r="A139" s="2"/>
       <c r="B139" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="2"/>
+      <c r="A140" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="B140" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2"/>
       <c r="B141" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B142" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="2" t="s">
-        <v>208</v>
-      </c>
+      <c r="A143" s="2"/>
       <c r="B143" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B144" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2"/>
       <c r="B145" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="2" t="s">
-        <v>213</v>
-      </c>
+      <c r="A146" s="2"/>
       <c r="B146" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B147" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B148" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B149" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="2" t="s">
-        <v>220</v>
-      </c>
+      <c r="A150" s="2"/>
       <c r="B150" t="s">
         <v>221</v>
       </c>
@@ -4879,51 +4916,53 @@
         <v>222</v>
       </c>
       <c r="B151" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B152" t="s">
         <v>224</v>
-      </c>
-      <c r="B152" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B153" t="s">
         <v>226</v>
-      </c>
-      <c r="B153" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B154" t="s">
         <v>228</v>
-      </c>
-      <c r="B154" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B155" t="s">
         <v>230</v>
-      </c>
-      <c r="B155" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B156" t="s">
         <v>232</v>
       </c>
-      <c r="B156" t="s">
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="2"/>
       <c r="B157" t="s">
         <v>234</v>
       </c>
@@ -4953,83 +4992,83 @@
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="2"/>
+      <c r="A161" s="2" t="s">
+        <v>241</v>
+      </c>
       <c r="B161" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="2"/>
       <c r="B162" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="2"/>
+      <c r="A163" s="2" t="s">
+        <v>244</v>
+      </c>
       <c r="B163" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="2"/>
+      <c r="A164" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="B164" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B165" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="2"/>
       <c r="B166" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="2"/>
       <c r="B167" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="2"/>
       <c r="B168" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="2" t="s">
-        <v>250</v>
-      </c>
+      <c r="A169" s="2"/>
       <c r="B169" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B170" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="2" t="s">
-        <v>254</v>
-      </c>
+      <c r="A171" s="2"/>
       <c r="B171" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="2" t="s">
-        <v>256</v>
-      </c>
+      <c r="A172" s="2"/>
       <c r="B172" t="s">
         <v>257</v>
       </c>
@@ -5041,45 +5080,45 @@
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="2"/>
+      <c r="A174" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="B174" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B175" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="2"/>
+      <c r="A176" s="2" t="s">
+        <v>263</v>
+      </c>
       <c r="B176" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B177" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="2" t="s">
-        <v>265</v>
-      </c>
+      <c r="A178" s="2"/>
       <c r="B178" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="2" t="s">
-        <v>267</v>
-      </c>
+      <c r="A179" s="2"/>
       <c r="B179" t="s">
         <v>268</v>
       </c>
@@ -5093,127 +5132,127 @@
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="2" t="s">
+      <c r="A181" s="2"/>
+      <c r="B181" t="s">
         <v>271</v>
-      </c>
-      <c r="B181" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B182" t="s">
         <v>273</v>
-      </c>
-      <c r="B182" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B183" t="s">
         <v>275</v>
-      </c>
-      <c r="B183" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B184" t="s">
         <v>277</v>
       </c>
-      <c r="B184" t="s">
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="2"/>
       <c r="B185" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="2"/>
+      <c r="A186" s="2" t="s">
+        <v>280</v>
+      </c>
       <c r="B186" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="2"/>
+      <c r="A187" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="B187" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="2"/>
+      <c r="A188" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="B188" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B189" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="2" t="s">
-        <v>285</v>
-      </c>
+      <c r="A190" s="2"/>
       <c r="B190" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="2" t="s">
-        <v>287</v>
-      </c>
+      <c r="A191" s="2"/>
       <c r="B191" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="2" t="s">
-        <v>289</v>
-      </c>
+      <c r="A192" s="2"/>
       <c r="B192" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="2" t="s">
+      <c r="A193" s="2"/>
+      <c r="B193" t="s">
         <v>291</v>
-      </c>
-      <c r="B193" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B194" t="s">
         <v>293</v>
-      </c>
-      <c r="B194" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B195" t="s">
         <v>295</v>
-      </c>
-      <c r="B195" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B196" t="s">
         <v>297</v>
       </c>
-      <c r="B196" t="s">
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="2" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="2"/>
       <c r="B197" t="s">
         <v>299</v>
       </c>
@@ -5243,95 +5282,95 @@
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="2"/>
+      <c r="A201" s="2" t="s">
+        <v>306</v>
+      </c>
       <c r="B201" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="2"/>
       <c r="B202" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="2"/>
+      <c r="A203" s="2" t="s">
+        <v>309</v>
+      </c>
       <c r="B203" t="s">
-        <v>99</v>
+        <v>310</v>
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="2"/>
+      <c r="A204" s="2" t="s">
+        <v>311</v>
+      </c>
       <c r="B204" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B205" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="2" t="s">
-        <v>311</v>
-      </c>
+      <c r="A206" s="2"/>
       <c r="B206" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="2" t="s">
-        <v>313</v>
-      </c>
+      <c r="A207" s="2"/>
       <c r="B207" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="A208" s="2"/>
       <c r="B208" t="s">
-        <v>316</v>
+        <v>99</v>
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" s="2" t="s">
+      <c r="A209" s="2"/>
+      <c r="B209" t="s">
         <v>317</v>
-      </c>
-      <c r="B209" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B210" t="s">
         <v>319</v>
-      </c>
-      <c r="B210" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B211" t="s">
         <v>321</v>
-      </c>
-      <c r="B211" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B212" t="s">
         <v>323</v>
       </c>
-      <c r="B212" t="s">
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" s="2"/>
       <c r="B213" t="s">
         <v>325</v>
       </c>
@@ -5387,45 +5426,45 @@
         <v>337</v>
       </c>
       <c r="B220" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B221" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B222" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="2"/>
       <c r="B223" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B224" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B225" t="s">
         <v>345</v>
-      </c>
-      <c r="B225" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -5445,23 +5484,23 @@
       </c>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228" s="2" t="s">
+      <c r="A228" s="2"/>
+      <c r="B228" t="s">
         <v>351</v>
-      </c>
-      <c r="B228" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B229" t="s">
         <v>353</v>
       </c>
-      <c r="B229" t="s">
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="2" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230" s="2"/>
       <c r="B230" t="s">
         <v>355</v>
       </c>
@@ -5483,23 +5522,23 @@
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="2"/>
+      <c r="A233" s="2" t="s">
+        <v>360</v>
+      </c>
       <c r="B233" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B234" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="235" spans="1:3">
-      <c r="A235" s="2" t="s">
-        <v>363</v>
-      </c>
+      <c r="A235" s="2"/>
       <c r="B235" t="s">
         <v>364</v>
       </c>
@@ -5535,31 +5574,31 @@
       </c>
     </row>
     <row r="240" spans="1:3">
-      <c r="A240" s="2"/>
+      <c r="A240" s="2" t="s">
+        <v>372</v>
+      </c>
       <c r="B240" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B241" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B242" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="243" spans="1:3">
-      <c r="A243" s="2" t="s">
-        <v>377</v>
-      </c>
+      <c r="A243" s="2"/>
       <c r="B243" t="s">
         <v>378</v>
       </c>
@@ -5573,241 +5612,241 @@
       </c>
     </row>
     <row r="245" spans="1:3">
-      <c r="A245" s="2" t="s">
+      <c r="A245" s="2"/>
+      <c r="B245" t="s">
         <v>381</v>
-      </c>
-      <c r="B245" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B246" t="s">
         <v>383</v>
-      </c>
-      <c r="B246" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B247" t="s">
         <v>385</v>
-      </c>
-      <c r="B247" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B248" t="s">
         <v>387</v>
-      </c>
-      <c r="B248" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B249" t="s">
         <v>389</v>
-      </c>
-      <c r="B249" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B250" t="s">
         <v>391</v>
-      </c>
-      <c r="B250" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="2" t="s">
-        <v>1</v>
+        <v>392</v>
       </c>
       <c r="B251" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="252" spans="1:3">
-      <c r="A252" s="2"/>
+      <c r="A252" s="2" t="s">
+        <v>394</v>
+      </c>
       <c r="B252" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B253" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="254" spans="1:3">
-      <c r="A254" s="2"/>
+      <c r="A254" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="B254" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B255" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="256" spans="1:3">
-      <c r="A256" s="2"/>
+      <c r="A256" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="B256" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="257" spans="1:3">
-      <c r="A257" s="2" t="s">
-        <v>401</v>
-      </c>
+      <c r="A257" s="2"/>
       <c r="B257" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="258" spans="1:3">
-      <c r="A258" s="2"/>
+      <c r="A258" s="2" t="s">
+        <v>404</v>
+      </c>
       <c r="B258" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="259" spans="1:3">
-      <c r="A259" s="2" t="s">
-        <v>404</v>
-      </c>
+      <c r="A259" s="2"/>
       <c r="B259" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="260" spans="1:3">
-      <c r="A260" s="2"/>
+      <c r="A260" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="B260" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261" s="2" t="s">
-        <v>407</v>
-      </c>
+      <c r="A261" s="2"/>
       <c r="B261" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="262" spans="1:3">
-      <c r="A262" s="2"/>
+      <c r="A262" s="2" t="s">
+        <v>410</v>
+      </c>
       <c r="B262" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="2"/>
       <c r="B263" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="264" spans="1:3">
-      <c r="A264" s="2"/>
+      <c r="A264" s="2" t="s">
+        <v>413</v>
+      </c>
       <c r="B264" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="265" spans="1:3">
-      <c r="A265" s="2" t="s">
-        <v>412</v>
-      </c>
+      <c r="A265" s="2"/>
       <c r="B265" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="266" spans="1:3">
-      <c r="A266" s="2"/>
+      <c r="A266" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="B266" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267" s="2" t="s">
-        <v>415</v>
-      </c>
+      <c r="A267" s="2"/>
       <c r="B267" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="2"/>
       <c r="B268" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="269" spans="1:3">
-      <c r="A269" s="2" t="s">
-        <v>418</v>
-      </c>
+      <c r="A269" s="2"/>
       <c r="B269" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="270" spans="1:3">
-      <c r="A270" s="2"/>
+      <c r="A270" s="2" t="s">
+        <v>421</v>
+      </c>
       <c r="B270" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="271" spans="1:3">
-      <c r="A271" s="2" t="s">
-        <v>421</v>
-      </c>
+      <c r="A271" s="2"/>
       <c r="B271" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="272" spans="1:3">
-      <c r="A272" s="2"/>
+      <c r="A272" s="2" t="s">
+        <v>424</v>
+      </c>
       <c r="B272" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="273" spans="1:3">
-      <c r="A273" s="2" t="s">
-        <v>422</v>
-      </c>
+      <c r="A273" s="2"/>
       <c r="B273" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="2" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B274" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="2"/>
       <c r="B275" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B276" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="277" spans="1:3">
-      <c r="A277" s="2" t="s">
+      <c r="A277" s="2"/>
+      <c r="B277" t="s">
         <v>429</v>
-      </c>
-      <c r="B277" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5827,39 +5866,39 @@
       </c>
     </row>
     <row r="280" spans="1:3">
-      <c r="A280" s="2" t="s">
+      <c r="A280" s="2"/>
+      <c r="B280" t="s">
         <v>435</v>
-      </c>
-      <c r="B280" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B281" t="s">
         <v>437</v>
-      </c>
-      <c r="B281" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B282" t="s">
         <v>439</v>
-      </c>
-      <c r="B282" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B283" t="s">
         <v>441</v>
       </c>
-      <c r="B283" t="s">
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="2" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="284" spans="1:3">
-      <c r="A284" s="2"/>
       <c r="B284" t="s">
         <v>443</v>
       </c>
@@ -5881,23 +5920,23 @@
       </c>
     </row>
     <row r="287" spans="1:3">
-      <c r="A287" s="2"/>
+      <c r="A287" s="2" t="s">
+        <v>448</v>
+      </c>
       <c r="B287" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B288" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="289" spans="1:3">
-      <c r="A289" s="2" t="s">
-        <v>451</v>
-      </c>
+      <c r="A289" s="2"/>
       <c r="B289" t="s">
         <v>452</v>
       </c>
@@ -5919,47 +5958,47 @@
       </c>
     </row>
     <row r="292" spans="1:3">
-      <c r="A292" s="2" t="s">
+      <c r="A292" s="2"/>
+      <c r="B292" t="s">
         <v>457</v>
-      </c>
-      <c r="B292" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B293" t="s">
         <v>459</v>
-      </c>
-      <c r="B293" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B294" t="s">
         <v>461</v>
-      </c>
-      <c r="B294" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B295" t="s">
         <v>463</v>
-      </c>
-      <c r="B295" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B296" t="s">
         <v>465</v>
       </c>
-      <c r="B296" t="s">
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="2" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="297" spans="1:3">
-      <c r="A297" s="2"/>
       <c r="B297" t="s">
         <v>467</v>
       </c>
@@ -5997,131 +6036,129 @@
       </c>
     </row>
     <row r="302" spans="1:3">
-      <c r="A302" s="2" t="s">
+      <c r="A302" s="2"/>
+      <c r="B302" t="s">
         <v>476</v>
-      </c>
-      <c r="B302" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B303" t="s">
         <v>478</v>
-      </c>
-      <c r="B303" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B304" t="s">
         <v>480</v>
-      </c>
-      <c r="B304" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B305" t="s">
         <v>482</v>
-      </c>
-      <c r="B305" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B306" t="s">
         <v>484</v>
-      </c>
-      <c r="B306" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B307" t="s">
         <v>486</v>
-      </c>
-      <c r="B307" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B308" t="s">
         <v>488</v>
-      </c>
-      <c r="B308" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B309" t="s">
         <v>490</v>
-      </c>
-      <c r="B309" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B310" t="s">
         <v>492</v>
-      </c>
-      <c r="B310" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B311" t="s">
         <v>494</v>
-      </c>
-      <c r="B311" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B312" t="s">
         <v>496</v>
-      </c>
-      <c r="B312" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B313" t="s">
         <v>498</v>
-      </c>
-      <c r="B313" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B314" t="s">
         <v>500</v>
-      </c>
-      <c r="B314" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B315" t="s">
         <v>502</v>
-      </c>
-      <c r="B315" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B316" t="s">
         <v>504</v>
-      </c>
-      <c r="B316" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B317" t="s">
         <v>506</v>
-      </c>
-      <c r="B317" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -6137,31 +6174,31 @@
         <v>509</v>
       </c>
       <c r="B319" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B320" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B321" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B322" t="s">
         <v>514</v>
-      </c>
-      <c r="B322" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -6177,139 +6214,141 @@
         <v>518</v>
       </c>
       <c r="B324" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B325" t="s">
         <v>520</v>
-      </c>
-      <c r="B325" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B326" t="s">
         <v>522</v>
-      </c>
-      <c r="B326" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B327" t="s">
         <v>524</v>
-      </c>
-      <c r="B327" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B328" t="s">
         <v>526</v>
-      </c>
-      <c r="B328" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B329" t="s">
         <v>528</v>
-      </c>
-      <c r="B329" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B330" t="s">
         <v>530</v>
-      </c>
-      <c r="B330" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B331" t="s">
         <v>532</v>
-      </c>
-      <c r="B331" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B332" t="s">
         <v>534</v>
-      </c>
-      <c r="B332" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B333" t="s">
         <v>536</v>
-      </c>
-      <c r="B333" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B334" t="s">
         <v>538</v>
-      </c>
-      <c r="B334" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B335" t="s">
         <v>540</v>
-      </c>
-      <c r="B335" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B336" t="s">
         <v>542</v>
-      </c>
-      <c r="B336" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B337" t="s">
         <v>544</v>
-      </c>
-      <c r="B337" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B338" t="s">
         <v>546</v>
-      </c>
-      <c r="B338" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B339" t="s">
         <v>548</v>
-      </c>
-      <c r="B339" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B340" t="s">
         <v>550</v>
       </c>
-      <c r="B340" t="s">
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="2" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="341" spans="1:3">
-      <c r="A341" s="2"/>
       <c r="B341" t="s">
         <v>552</v>
       </c>
@@ -6331,189 +6370,189 @@
       </c>
     </row>
     <row r="344" spans="1:3">
-      <c r="A344" s="2"/>
+      <c r="A344" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="B344" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="345" spans="1:3">
-      <c r="A345" s="2"/>
+      <c r="A345" s="2" t="s">
+        <v>559</v>
+      </c>
       <c r="B345" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="346" spans="1:3">
-      <c r="A346" s="2" t="s">
-        <v>559</v>
-      </c>
+      <c r="A346" s="2"/>
       <c r="B346" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B347" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B348" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="349" spans="1:3">
-      <c r="A349" s="2" t="s">
-        <v>565</v>
-      </c>
+      <c r="A349" s="2"/>
       <c r="B349" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="350" spans="1:3">
-      <c r="A350" s="2" t="s">
+      <c r="A350" s="2"/>
+      <c r="B350" t="s">
         <v>567</v>
-      </c>
-      <c r="B350" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B351" t="s">
         <v>569</v>
-      </c>
-      <c r="B351" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B352" t="s">
         <v>571</v>
-      </c>
-      <c r="B352" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B353" t="s">
         <v>573</v>
-      </c>
-      <c r="B353" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B354" t="s">
         <v>575</v>
-      </c>
-      <c r="B354" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B355" t="s">
         <v>577</v>
-      </c>
-      <c r="B355" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B356" t="s">
         <v>579</v>
-      </c>
-      <c r="B356" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B357" t="s">
         <v>581</v>
-      </c>
-      <c r="B357" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B358" t="s">
         <v>583</v>
-      </c>
-      <c r="B358" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B359" t="s">
         <v>585</v>
       </c>
-      <c r="B359" t="s">
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="2" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="360" spans="1:3">
-      <c r="A360" s="2"/>
       <c r="B360" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="361" spans="1:3">
-      <c r="A361" s="2"/>
+      <c r="A361" s="2" t="s">
+        <v>588</v>
+      </c>
       <c r="B361" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="362" spans="1:3">
-      <c r="A362" s="2"/>
+      <c r="A362" s="2" t="s">
+        <v>590</v>
+      </c>
       <c r="B362" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="2" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B363" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="2" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B364" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="365" spans="1:3">
-      <c r="A365" s="2" t="s">
-        <v>594</v>
-      </c>
+      <c r="A365" s="2"/>
       <c r="B365" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="366" spans="1:3">
-      <c r="A366" s="2" t="s">
-        <v>596</v>
-      </c>
+      <c r="A366" s="2"/>
       <c r="B366" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="367" spans="1:3">
-      <c r="A367" s="2" t="s">
+      <c r="A367" s="2"/>
+      <c r="B367" t="s">
         <v>598</v>
       </c>
-      <c r="B367" t="s">
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="2" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="368" spans="1:3">
-      <c r="A368" s="2"/>
       <c r="B368" t="s">
         <v>600</v>
       </c>
@@ -6589,39 +6628,39 @@
       </c>
     </row>
     <row r="378" spans="1:3">
-      <c r="A378" s="2" t="s">
+      <c r="A378" s="2"/>
+      <c r="B378" t="s">
         <v>618</v>
-      </c>
-      <c r="B378" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B379" t="s">
         <v>620</v>
-      </c>
-      <c r="B379" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B380" t="s">
         <v>622</v>
-      </c>
-      <c r="B380" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B381" t="s">
         <v>624</v>
       </c>
-      <c r="B381" t="s">
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" s="2" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="382" spans="1:3">
-      <c r="A382" s="2"/>
       <c r="B382" t="s">
         <v>626</v>
       </c>
@@ -6655,13 +6694,11 @@
         <v>633</v>
       </c>
       <c r="B386" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="387" spans="1:3">
-      <c r="A387" s="2" t="s">
-        <v>634</v>
-      </c>
+      <c r="A387" s="2"/>
       <c r="B387" t="s">
         <v>635</v>
       </c>
@@ -6675,15 +6712,55 @@
       </c>
     </row>
     <row r="389" spans="1:3">
-      <c r="A389" s="2"/>
+      <c r="A389" s="2" t="s">
+        <v>638</v>
+      </c>
       <c r="B389" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="390" spans="1:3">
-      <c r="A390" s="2"/>
+      <c r="A390" s="2" t="s">
+        <v>640</v>
+      </c>
       <c r="B390" t="s">
-        <v>639</v>
+        <v>641</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B391" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B392" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B393" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" s="2"/>
+      <c r="B394" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" s="2"/>
+      <c r="B395" t="s">
+        <v>648</v>
       </c>
     </row>
   </sheetData>
@@ -6732,11 +6809,10 @@
     <mergeCell ref="A98:A98"/>
     <mergeCell ref="A99:A99"/>
     <mergeCell ref="A100:A100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A103:A103"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A109:A109"/>
-    <mergeCell ref="A110:A110"/>
+    <mergeCell ref="A101:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A104"/>
+    <mergeCell ref="A105:A110"/>
     <mergeCell ref="A111:A111"/>
     <mergeCell ref="A112:A112"/>
     <mergeCell ref="A113:A113"/>
@@ -6748,66 +6824,67 @@
     <mergeCell ref="A119:A119"/>
     <mergeCell ref="A120:A120"/>
     <mergeCell ref="A121:A121"/>
-    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="A122:A122"/>
+    <mergeCell ref="A123:A123"/>
     <mergeCell ref="A124:A124"/>
-    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="A125:A125"/>
+    <mergeCell ref="A126:A126"/>
     <mergeCell ref="A127:A128"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="A139:A141"/>
-    <mergeCell ref="A142:A142"/>
-    <mergeCell ref="A143:A143"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="A146:A146"/>
+    <mergeCell ref="A129:A129"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="A144:A146"/>
     <mergeCell ref="A147:A147"/>
     <mergeCell ref="A148:A148"/>
-    <mergeCell ref="A149:A149"/>
-    <mergeCell ref="A150:A150"/>
+    <mergeCell ref="A149:A150"/>
     <mergeCell ref="A151:A151"/>
     <mergeCell ref="A152:A152"/>
     <mergeCell ref="A153:A153"/>
     <mergeCell ref="A154:A154"/>
     <mergeCell ref="A155:A155"/>
-    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="A156:A156"/>
+    <mergeCell ref="A157:A157"/>
     <mergeCell ref="A158:A158"/>
     <mergeCell ref="A159:A159"/>
-    <mergeCell ref="A160:A164"/>
-    <mergeCell ref="A165:A168"/>
-    <mergeCell ref="A169:A169"/>
-    <mergeCell ref="A170:A170"/>
-    <mergeCell ref="A171:A171"/>
-    <mergeCell ref="A172:A174"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="A177:A177"/>
-    <mergeCell ref="A178:A178"/>
-    <mergeCell ref="A179:A179"/>
-    <mergeCell ref="A180:A180"/>
-    <mergeCell ref="A181:A181"/>
+    <mergeCell ref="A160:A160"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A163:A163"/>
+    <mergeCell ref="A164:A164"/>
+    <mergeCell ref="A165:A169"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="A174:A174"/>
+    <mergeCell ref="A175:A175"/>
+    <mergeCell ref="A176:A176"/>
+    <mergeCell ref="A177:A179"/>
+    <mergeCell ref="A180:A181"/>
     <mergeCell ref="A182:A182"/>
     <mergeCell ref="A183:A183"/>
-    <mergeCell ref="A184:A188"/>
-    <mergeCell ref="A189:A189"/>
-    <mergeCell ref="A190:A190"/>
-    <mergeCell ref="A191:A191"/>
-    <mergeCell ref="A192:A192"/>
-    <mergeCell ref="A193:A193"/>
+    <mergeCell ref="A184:A184"/>
+    <mergeCell ref="A185:A185"/>
+    <mergeCell ref="A186:A186"/>
+    <mergeCell ref="A187:A187"/>
+    <mergeCell ref="A188:A188"/>
+    <mergeCell ref="A189:A193"/>
     <mergeCell ref="A194:A194"/>
     <mergeCell ref="A195:A195"/>
-    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="A196:A196"/>
+    <mergeCell ref="A197:A197"/>
     <mergeCell ref="A198:A198"/>
     <mergeCell ref="A199:A199"/>
-    <mergeCell ref="A200:A204"/>
-    <mergeCell ref="A205:A205"/>
-    <mergeCell ref="A206:A206"/>
-    <mergeCell ref="A207:A207"/>
-    <mergeCell ref="A208:A208"/>
-    <mergeCell ref="A209:A209"/>
+    <mergeCell ref="A200:A200"/>
+    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="A203:A203"/>
+    <mergeCell ref="A204:A204"/>
+    <mergeCell ref="A205:A209"/>
     <mergeCell ref="A210:A210"/>
     <mergeCell ref="A211:A211"/>
-    <mergeCell ref="A212:A213"/>
+    <mergeCell ref="A212:A212"/>
+    <mergeCell ref="A213:A213"/>
     <mergeCell ref="A214:A214"/>
     <mergeCell ref="A215:A215"/>
     <mergeCell ref="A216:A216"/>
@@ -6819,62 +6896,61 @@
     <mergeCell ref="A224:A224"/>
     <mergeCell ref="A225:A225"/>
     <mergeCell ref="A226:A226"/>
-    <mergeCell ref="A227:A227"/>
-    <mergeCell ref="A228:A228"/>
-    <mergeCell ref="A229:A230"/>
+    <mergeCell ref="A227:A228"/>
+    <mergeCell ref="A229:A229"/>
+    <mergeCell ref="A230:A230"/>
     <mergeCell ref="A231:A231"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="A234:A234"/>
-    <mergeCell ref="A235:A235"/>
+    <mergeCell ref="A232:A232"/>
+    <mergeCell ref="A233:A233"/>
+    <mergeCell ref="A234:A235"/>
     <mergeCell ref="A236:A236"/>
     <mergeCell ref="A237:A238"/>
-    <mergeCell ref="A239:A240"/>
+    <mergeCell ref="A239:A239"/>
+    <mergeCell ref="A240:A240"/>
     <mergeCell ref="A241:A241"/>
-    <mergeCell ref="A242:A242"/>
-    <mergeCell ref="A243:A243"/>
-    <mergeCell ref="A244:A244"/>
-    <mergeCell ref="A245:A245"/>
+    <mergeCell ref="A242:A243"/>
+    <mergeCell ref="A244:A245"/>
     <mergeCell ref="A246:A246"/>
     <mergeCell ref="A247:A247"/>
     <mergeCell ref="A248:A248"/>
     <mergeCell ref="A249:A249"/>
     <mergeCell ref="A250:A250"/>
-    <mergeCell ref="A251:A252"/>
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="A255:A256"/>
-    <mergeCell ref="A257:A258"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="A261:A264"/>
-    <mergeCell ref="A265:A266"/>
-    <mergeCell ref="A267:A268"/>
-    <mergeCell ref="A269:A270"/>
-    <mergeCell ref="A271:A272"/>
-    <mergeCell ref="A273:A273"/>
+    <mergeCell ref="A251:A251"/>
+    <mergeCell ref="A252:A252"/>
+    <mergeCell ref="A253:A253"/>
+    <mergeCell ref="A254:A254"/>
+    <mergeCell ref="A255:A255"/>
+    <mergeCell ref="A256:A257"/>
+    <mergeCell ref="A258:A259"/>
+    <mergeCell ref="A260:A261"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="A264:A265"/>
+    <mergeCell ref="A266:A269"/>
+    <mergeCell ref="A270:A271"/>
+    <mergeCell ref="A272:A273"/>
     <mergeCell ref="A274:A275"/>
-    <mergeCell ref="A276:A276"/>
-    <mergeCell ref="A277:A277"/>
+    <mergeCell ref="A276:A277"/>
     <mergeCell ref="A278:A278"/>
-    <mergeCell ref="A279:A279"/>
-    <mergeCell ref="A280:A280"/>
+    <mergeCell ref="A279:A280"/>
     <mergeCell ref="A281:A281"/>
     <mergeCell ref="A282:A282"/>
-    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="A283:A283"/>
+    <mergeCell ref="A284:A284"/>
     <mergeCell ref="A285:A285"/>
-    <mergeCell ref="A286:A287"/>
-    <mergeCell ref="A288:A288"/>
-    <mergeCell ref="A289:A289"/>
+    <mergeCell ref="A286:A286"/>
+    <mergeCell ref="A287:A287"/>
+    <mergeCell ref="A288:A289"/>
     <mergeCell ref="A290:A290"/>
-    <mergeCell ref="A291:A291"/>
-    <mergeCell ref="A292:A292"/>
+    <mergeCell ref="A291:A292"/>
     <mergeCell ref="A293:A293"/>
     <mergeCell ref="A294:A294"/>
     <mergeCell ref="A295:A295"/>
-    <mergeCell ref="A296:A297"/>
+    <mergeCell ref="A296:A296"/>
+    <mergeCell ref="A297:A297"/>
     <mergeCell ref="A298:A298"/>
     <mergeCell ref="A299:A299"/>
     <mergeCell ref="A300:A300"/>
-    <mergeCell ref="A301:A301"/>
-    <mergeCell ref="A302:A302"/>
+    <mergeCell ref="A301:A302"/>
     <mergeCell ref="A303:A303"/>
     <mergeCell ref="A304:A304"/>
     <mergeCell ref="A305:A305"/>
@@ -6912,14 +6988,14 @@
     <mergeCell ref="A337:A337"/>
     <mergeCell ref="A338:A338"/>
     <mergeCell ref="A339:A339"/>
-    <mergeCell ref="A340:A341"/>
+    <mergeCell ref="A340:A340"/>
+    <mergeCell ref="A341:A341"/>
     <mergeCell ref="A342:A342"/>
-    <mergeCell ref="A343:A345"/>
-    <mergeCell ref="A346:A346"/>
+    <mergeCell ref="A343:A343"/>
+    <mergeCell ref="A344:A344"/>
+    <mergeCell ref="A345:A346"/>
     <mergeCell ref="A347:A347"/>
-    <mergeCell ref="A348:A348"/>
-    <mergeCell ref="A349:A349"/>
-    <mergeCell ref="A350:A350"/>
+    <mergeCell ref="A348:A350"/>
     <mergeCell ref="A351:A351"/>
     <mergeCell ref="A352:A352"/>
     <mergeCell ref="A353:A353"/>
@@ -6928,12 +7004,13 @@
     <mergeCell ref="A356:A356"/>
     <mergeCell ref="A357:A357"/>
     <mergeCell ref="A358:A358"/>
-    <mergeCell ref="A359:A362"/>
+    <mergeCell ref="A359:A359"/>
+    <mergeCell ref="A360:A360"/>
+    <mergeCell ref="A361:A361"/>
+    <mergeCell ref="A362:A362"/>
     <mergeCell ref="A363:A363"/>
-    <mergeCell ref="A364:A364"/>
-    <mergeCell ref="A365:A365"/>
-    <mergeCell ref="A366:A366"/>
-    <mergeCell ref="A367:A368"/>
+    <mergeCell ref="A364:A367"/>
+    <mergeCell ref="A368:A368"/>
     <mergeCell ref="A369:A369"/>
     <mergeCell ref="A370:A370"/>
     <mergeCell ref="A371:A371"/>
@@ -6941,17 +7018,21 @@
     <mergeCell ref="A374:A374"/>
     <mergeCell ref="A375:A375"/>
     <mergeCell ref="A376:A376"/>
-    <mergeCell ref="A377:A377"/>
-    <mergeCell ref="A378:A378"/>
+    <mergeCell ref="A377:A378"/>
     <mergeCell ref="A379:A379"/>
     <mergeCell ref="A380:A380"/>
-    <mergeCell ref="A381:A382"/>
+    <mergeCell ref="A381:A381"/>
+    <mergeCell ref="A382:A382"/>
     <mergeCell ref="A383:A383"/>
     <mergeCell ref="A384:A384"/>
     <mergeCell ref="A385:A385"/>
-    <mergeCell ref="A386:A386"/>
-    <mergeCell ref="A387:A387"/>
-    <mergeCell ref="A388:A390"/>
+    <mergeCell ref="A386:A387"/>
+    <mergeCell ref="A388:A388"/>
+    <mergeCell ref="A389:A389"/>
+    <mergeCell ref="A390:A390"/>
+    <mergeCell ref="A391:A391"/>
+    <mergeCell ref="A392:A392"/>
+    <mergeCell ref="A393:A395"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6972,13 +7053,13 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N264"/>
+  <dimension ref="A1:N268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1:N264"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:N268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7004,43 +7085,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -7049,7 +7130,7 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="4" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -7062,7 +7143,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="4" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -7071,7 +7152,7 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="4" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -7084,7 +7165,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="4" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -7093,7 +7174,7 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="4" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -7106,7 +7187,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="4" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -7115,7 +7196,7 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="4" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -7128,7 +7209,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="4" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -7137,7 +7218,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="4" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -7150,7 +7231,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="4" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -7159,7 +7240,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="4" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -7172,7 +7253,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="4" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -7181,7 +7262,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="4" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -7194,7 +7275,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="4" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -7214,7 +7295,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="4" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -7234,7 +7315,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="4" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -7254,7 +7335,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="4" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -7274,7 +7355,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="4" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -7294,7 +7375,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="4" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -7303,7 +7384,7 @@
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="4" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -7316,7 +7397,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="4" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -7325,7 +7406,7 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="4" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -7338,7 +7419,7 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="4" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -7347,7 +7428,7 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="4" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -7360,7 +7441,7 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="4" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -7369,7 +7450,7 @@
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="4" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -7382,7 +7463,7 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="4" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -7391,7 +7472,7 @@
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="4" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -7404,7 +7485,7 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="4" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -7413,7 +7494,7 @@
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="4" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -7426,7 +7507,7 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="4" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -7435,7 +7516,7 @@
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="4" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -7448,7 +7529,7 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="4" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -7457,7 +7538,7 @@
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="4" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -7470,7 +7551,7 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="4" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -7479,7 +7560,7 @@
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="4" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -7492,7 +7573,7 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="4" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -7501,7 +7582,7 @@
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="4" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -7514,7 +7595,7 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="4" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -7523,7 +7604,7 @@
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="4" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -7536,7 +7617,7 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="4" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -7545,7 +7626,7 @@
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="4" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -7558,7 +7639,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="4" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -7567,7 +7648,7 @@
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="4" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -7580,7 +7661,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="4" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -7589,7 +7670,7 @@
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="4" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -7602,7 +7683,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="4" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -7611,7 +7692,7 @@
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="4" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -7624,7 +7705,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="4" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -7633,7 +7714,7 @@
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="4" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -7646,7 +7727,7 @@
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="4" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -7655,7 +7736,7 @@
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="4" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -7668,7 +7749,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="4" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -7677,7 +7758,7 @@
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="4" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -7690,7 +7771,7 @@
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="4" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -7699,7 +7780,7 @@
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="4" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -7712,7 +7793,7 @@
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="4" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -7721,7 +7802,7 @@
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="4" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -7734,7 +7815,7 @@
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="4" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -7743,7 +7824,7 @@
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="4" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -7756,7 +7837,7 @@
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="4" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -7765,7 +7846,7 @@
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="4" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -7778,7 +7859,7 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="4" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -7787,7 +7868,7 @@
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="4" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -7800,7 +7881,7 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="4" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -7809,7 +7890,7 @@
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="4" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -7822,7 +7903,7 @@
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="4" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -7842,7 +7923,7 @@
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="4" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -7862,7 +7943,7 @@
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="4" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -7882,7 +7963,7 @@
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="4" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -7891,7 +7972,7 @@
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="4" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -7904,7 +7985,7 @@
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
       <c r="N41" s="4" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -7924,7 +8005,7 @@
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="4" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -7932,9 +8013,7 @@
         <v>138</v>
       </c>
       <c r="B43" s="5"/>
-      <c r="C43" s="4" t="s">
-        <v>726</v>
-      </c>
+      <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -7946,7 +8025,7 @@
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="4" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -7954,7 +8033,9 @@
         <v>140</v>
       </c>
       <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
+      <c r="C44" s="4" t="s">
+        <v>736</v>
+      </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -7966,12 +8047,12 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="4" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -7986,17 +8067,15 @@
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
       <c r="N45" s="4" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B46" s="5"/>
-      <c r="C46" s="4" t="s">
-        <v>730</v>
-      </c>
+      <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -8008,7 +8087,7 @@
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="4" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -8017,7 +8096,7 @@
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="4" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -8030,16 +8109,16 @@
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
       <c r="N47" s="4" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="4" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -8052,16 +8131,16 @@
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
       <c r="N48" s="4" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="4" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -8074,16 +8153,16 @@
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
       <c r="N49" s="4" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="4" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -8096,16 +8175,16 @@
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
       <c r="N50" s="4" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="4" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -8118,16 +8197,16 @@
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
       <c r="N51" s="4" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="4" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -8140,16 +8219,16 @@
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="4" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="4" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -8162,16 +8241,16 @@
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="4" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="4" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -8184,16 +8263,16 @@
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
       <c r="N54" s="4" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="4" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -8206,16 +8285,16 @@
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
       <c r="N55" s="4" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="4" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -8228,17 +8307,15 @@
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
       <c r="N56" s="4" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B57" s="5"/>
-      <c r="C57" s="4" t="s">
-        <v>752</v>
-      </c>
+      <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -8250,16 +8327,16 @@
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="4" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="4" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -8272,17 +8349,15 @@
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
       <c r="N58" s="4" t="s">
-        <v>753</v>
+        <v>762</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B59" s="5"/>
-      <c r="C59" s="4" t="s">
-        <v>754</v>
-      </c>
+      <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
@@ -8294,17 +8369,15 @@
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
       <c r="N59" s="4" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B60" s="5"/>
-      <c r="C60" s="4" t="s">
-        <v>756</v>
-      </c>
+      <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -8316,16 +8389,16 @@
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
       <c r="N60" s="4" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="4" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -8338,7 +8411,7 @@
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
       <c r="N61" s="4" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -8347,7 +8420,7 @@
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="4" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -8360,7 +8433,7 @@
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
       <c r="N62" s="4" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -8369,7 +8442,7 @@
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="4" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -8382,16 +8455,16 @@
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
       <c r="N63" s="4" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="4" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -8404,16 +8477,16 @@
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
       <c r="N64" s="4" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="4" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -8426,16 +8499,16 @@
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
       <c r="N65" s="4" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="4" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -8448,16 +8521,16 @@
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
       <c r="N66" s="4" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="4" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
@@ -8470,16 +8543,16 @@
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
       <c r="N67" s="4" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="4" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -8492,16 +8565,16 @@
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
       <c r="N68" s="4" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="4" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -8514,16 +8587,16 @@
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
       <c r="N69" s="4" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="4" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -8536,16 +8609,16 @@
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
       <c r="N70" s="4" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="4" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -8558,16 +8631,16 @@
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
       <c r="N71" s="4" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="4" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -8580,16 +8653,16 @@
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
       <c r="N72" s="4" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="4" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -8602,16 +8675,16 @@
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
       <c r="N73" s="4" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="4" t="s">
-        <v>746</v>
+        <v>789</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -8624,16 +8697,16 @@
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
       <c r="N74" s="4" t="s">
-        <v>747</v>
+        <v>790</v>
       </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="4" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -8646,16 +8719,16 @@
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
       <c r="N75" s="4" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="4" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -8668,16 +8741,16 @@
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
       <c r="N76" s="4" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="4" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -8690,16 +8763,16 @@
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
       <c r="N77" s="4" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="4" t="s">
-        <v>790</v>
+        <v>756</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -8712,16 +8785,16 @@
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
       <c r="N78" s="4" t="s">
-        <v>791</v>
+        <v>757</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="4" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -8734,16 +8807,16 @@
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
       <c r="N79" s="4" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="4" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -8756,16 +8829,16 @@
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
       <c r="N80" s="4" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="4" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -8778,16 +8851,16 @@
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
       <c r="N81" s="4" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="4" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -8800,16 +8873,16 @@
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
       <c r="N82" s="4" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="4" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -8822,16 +8895,16 @@
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
       <c r="N83" s="4" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="4" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -8844,7 +8917,7 @@
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
       <c r="N84" s="4" t="s">
-        <v>232</v>
+        <v>808</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -8853,7 +8926,7 @@
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="4" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -8866,7 +8939,7 @@
       <c r="L85" s="5"/>
       <c r="M85" s="5"/>
       <c r="N85" s="4" t="s">
-        <v>235</v>
+        <v>810</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -8875,7 +8948,7 @@
       </c>
       <c r="B86" s="5"/>
       <c r="C86" s="4" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -8888,7 +8961,7 @@
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
       <c r="N86" s="4" t="s">
-        <v>237</v>
+        <v>812</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -8897,7 +8970,7 @@
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="4" t="s">
-        <v>805</v>
+        <v>813</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -8910,16 +8983,16 @@
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
       <c r="N87" s="4" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B88" s="5"/>
       <c r="C88" s="4" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -8932,16 +9005,16 @@
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
       <c r="N88" s="4" t="s">
-        <v>808</v>
+        <v>241</v>
       </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B89" s="5"/>
       <c r="C89" s="4" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -8954,16 +9027,16 @@
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
       <c r="N89" s="4" t="s">
-        <v>810</v>
+        <v>244</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B90" s="5"/>
       <c r="C90" s="4" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -8976,16 +9049,16 @@
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
       <c r="N90" s="4" t="s">
-        <v>812</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B91" s="5"/>
       <c r="C91" s="4" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -8998,16 +9071,16 @@
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
       <c r="N91" s="4" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B92" s="5"/>
       <c r="C92" s="4" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -9020,16 +9093,16 @@
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
       <c r="N92" s="4" t="s">
-        <v>707</v>
+        <v>821</v>
       </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B93" s="5"/>
       <c r="C93" s="4" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -9042,16 +9115,16 @@
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
       <c r="N93" s="4" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B94" s="5"/>
       <c r="C94" s="4" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -9064,16 +9137,16 @@
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
       <c r="N94" s="4" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B95" s="5"/>
       <c r="C95" s="4" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -9086,16 +9159,16 @@
       <c r="L95" s="5"/>
       <c r="M95" s="5"/>
       <c r="N95" s="4" t="s">
-        <v>265</v>
+        <v>827</v>
       </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="4" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -9108,7 +9181,7 @@
       <c r="L96" s="5"/>
       <c r="M96" s="5"/>
       <c r="N96" s="4" t="s">
-        <v>822</v>
+        <v>716</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -9117,7 +9190,7 @@
       </c>
       <c r="B97" s="5"/>
       <c r="C97" s="4" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -9130,16 +9203,16 @@
       <c r="L97" s="5"/>
       <c r="M97" s="5"/>
       <c r="N97" s="4" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="4" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -9152,16 +9225,16 @@
       <c r="L98" s="5"/>
       <c r="M98" s="5"/>
       <c r="N98" s="4" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B99" s="5"/>
       <c r="C99" s="4" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -9174,16 +9247,16 @@
       <c r="L99" s="5"/>
       <c r="M99" s="5"/>
       <c r="N99" s="4" t="s">
-        <v>828</v>
+        <v>274</v>
       </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B100" s="5"/>
       <c r="C100" s="4" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -9196,16 +9269,16 @@
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
       <c r="N100" s="4" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B101" s="5"/>
       <c r="C101" s="4" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -9218,16 +9291,16 @@
       <c r="L101" s="5"/>
       <c r="M101" s="5"/>
       <c r="N101" s="4" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B102" s="5"/>
       <c r="C102" s="4" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -9240,16 +9313,16 @@
       <c r="L102" s="5"/>
       <c r="M102" s="5"/>
       <c r="N102" s="4" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B103" s="5"/>
       <c r="C103" s="4" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -9262,16 +9335,16 @@
       <c r="L103" s="5"/>
       <c r="M103" s="5"/>
       <c r="N103" s="4" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B104" s="5"/>
       <c r="C104" s="4" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -9284,16 +9357,16 @@
       <c r="L104" s="5"/>
       <c r="M104" s="5"/>
       <c r="N104" s="4" t="s">
-        <v>287</v>
+        <v>843</v>
       </c>
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="4" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -9306,16 +9379,16 @@
       <c r="L105" s="5"/>
       <c r="M105" s="5"/>
       <c r="N105" s="4" t="s">
-        <v>289</v>
+        <v>845</v>
       </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B106" s="5"/>
       <c r="C106" s="4" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -9328,16 +9401,16 @@
       <c r="L106" s="5"/>
       <c r="M106" s="5"/>
       <c r="N106" s="4" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B107" s="5"/>
       <c r="C107" s="4" t="s">
-        <v>841</v>
+        <v>848</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -9350,16 +9423,16 @@
       <c r="L107" s="5"/>
       <c r="M107" s="5"/>
       <c r="N107" s="4" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B108" s="5"/>
       <c r="C108" s="4" t="s">
-        <v>843</v>
+        <v>850</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -9372,16 +9445,16 @@
       <c r="L108" s="5"/>
       <c r="M108" s="5"/>
       <c r="N108" s="4" t="s">
-        <v>844</v>
+        <v>296</v>
       </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B109" s="5"/>
       <c r="C109" s="4" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -9394,7 +9467,7 @@
       <c r="L109" s="5"/>
       <c r="M109" s="5"/>
       <c r="N109" s="4" t="s">
-        <v>846</v>
+        <v>298</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -9403,7 +9476,7 @@
       </c>
       <c r="B110" s="5"/>
       <c r="C110" s="4" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -9416,7 +9489,7 @@
       <c r="L110" s="5"/>
       <c r="M110" s="5"/>
       <c r="N110" s="4" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -9425,7 +9498,7 @@
       </c>
       <c r="B111" s="5"/>
       <c r="C111" s="4" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -9438,7 +9511,7 @@
       <c r="L111" s="5"/>
       <c r="M111" s="5"/>
       <c r="N111" s="4" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -9447,7 +9520,7 @@
       </c>
       <c r="B112" s="5"/>
       <c r="C112" s="4" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -9460,16 +9533,16 @@
       <c r="L112" s="5"/>
       <c r="M112" s="5"/>
       <c r="N112" s="4" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B113" s="5"/>
       <c r="C113" s="4" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -9482,16 +9555,16 @@
       <c r="L113" s="5"/>
       <c r="M113" s="5"/>
       <c r="N113" s="4" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B114" s="5"/>
       <c r="C114" s="4" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -9504,16 +9577,16 @@
       <c r="L114" s="5"/>
       <c r="M114" s="5"/>
       <c r="N114" s="4" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B115" s="5"/>
       <c r="C115" s="4" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -9526,16 +9599,16 @@
       <c r="L115" s="5"/>
       <c r="M115" s="5"/>
       <c r="N115" s="4" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B116" s="5"/>
       <c r="C116" s="4" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -9548,16 +9621,16 @@
       <c r="L116" s="5"/>
       <c r="M116" s="5"/>
       <c r="N116" s="4" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B117" s="5"/>
       <c r="C117" s="4" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
@@ -9570,16 +9643,16 @@
       <c r="L117" s="5"/>
       <c r="M117" s="5"/>
       <c r="N117" s="4" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B118" s="5"/>
       <c r="C118" s="4" t="s">
-        <v>802</v>
+        <v>868</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -9592,16 +9665,16 @@
       <c r="L118" s="5"/>
       <c r="M118" s="5"/>
       <c r="N118" s="4" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B119" s="5"/>
       <c r="C119" s="4" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -9614,16 +9687,16 @@
       <c r="L119" s="5"/>
       <c r="M119" s="5"/>
       <c r="N119" s="4" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B120" s="5"/>
       <c r="C120" s="4" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -9636,7 +9709,7 @@
       <c r="L120" s="5"/>
       <c r="M120" s="5"/>
       <c r="N120" s="4" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -9645,7 +9718,7 @@
       </c>
       <c r="B121" s="5"/>
       <c r="C121" s="4" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
@@ -9658,7 +9731,7 @@
       <c r="L121" s="5"/>
       <c r="M121" s="5"/>
       <c r="N121" s="4" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -9667,7 +9740,7 @@
       </c>
       <c r="B122" s="5"/>
       <c r="C122" s="4" t="s">
-        <v>870</v>
+        <v>815</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
@@ -9680,7 +9753,7 @@
       <c r="L122" s="5"/>
       <c r="M122" s="5"/>
       <c r="N122" s="4" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -9689,7 +9762,7 @@
       </c>
       <c r="B123" s="5"/>
       <c r="C123" s="4" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -9702,7 +9775,7 @@
       <c r="L123" s="5"/>
       <c r="M123" s="5"/>
       <c r="N123" s="4" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -9711,7 +9784,7 @@
       </c>
       <c r="B124" s="5"/>
       <c r="C124" s="4" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
@@ -9724,7 +9797,7 @@
       <c r="L124" s="5"/>
       <c r="M124" s="5"/>
       <c r="N124" s="4" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -9733,7 +9806,7 @@
       </c>
       <c r="B125" s="5"/>
       <c r="C125" s="4" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -9746,7 +9819,7 @@
       <c r="L125" s="5"/>
       <c r="M125" s="5"/>
       <c r="N125" s="4" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -9755,7 +9828,7 @@
       </c>
       <c r="B126" s="5"/>
       <c r="C126" s="4" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -9768,16 +9841,16 @@
       <c r="L126" s="5"/>
       <c r="M126" s="5"/>
       <c r="N126" s="4" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B127" s="5"/>
       <c r="C127" s="4" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -9790,15 +9863,17 @@
       <c r="L127" s="5"/>
       <c r="M127" s="5"/>
       <c r="N127" s="4" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
+      <c r="C128" s="4" t="s">
+        <v>887</v>
+      </c>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
@@ -9810,15 +9885,17 @@
       <c r="L128" s="5"/>
       <c r="M128" s="5"/>
       <c r="N128" s="4" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
+      <c r="C129" s="4" t="s">
+        <v>889</v>
+      </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
@@ -9830,16 +9907,16 @@
       <c r="L129" s="5"/>
       <c r="M129" s="5"/>
       <c r="N129" s="4" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B130" s="5"/>
       <c r="C130" s="4" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -9852,7 +9929,7 @@
       <c r="L130" s="5"/>
       <c r="M130" s="5"/>
       <c r="N130" s="4" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -9861,7 +9938,7 @@
       </c>
       <c r="B131" s="5"/>
       <c r="C131" s="4" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -9874,7 +9951,7 @@
       <c r="L131" s="5"/>
       <c r="M131" s="5"/>
       <c r="N131" s="4" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -9882,9 +9959,7 @@
         <v>349</v>
       </c>
       <c r="B132" s="5"/>
-      <c r="C132" s="4" t="s">
-        <v>888</v>
-      </c>
+      <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
@@ -9896,17 +9971,15 @@
       <c r="L132" s="5"/>
       <c r="M132" s="5"/>
       <c r="N132" s="4" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B133" s="5"/>
-      <c r="C133" s="4" t="s">
-        <v>890</v>
-      </c>
+      <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
@@ -9918,16 +9991,16 @@
       <c r="L133" s="5"/>
       <c r="M133" s="5"/>
       <c r="N133" s="4" t="s">
-        <v>891</v>
+        <v>896</v>
       </c>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B134" s="5"/>
       <c r="C134" s="4" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -9940,7 +10013,7 @@
       <c r="L134" s="5"/>
       <c r="M134" s="5"/>
       <c r="N134" s="4" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -9948,7 +10021,9 @@
         <v>356</v>
       </c>
       <c r="B135" s="5"/>
-      <c r="C135" s="5"/>
+      <c r="C135" s="4" t="s">
+        <v>899</v>
+      </c>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
@@ -9960,7 +10035,7 @@
       <c r="L135" s="5"/>
       <c r="M135" s="5"/>
       <c r="N135" s="4" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -9969,7 +10044,7 @@
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="4" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -9982,16 +10057,16 @@
       <c r="L136" s="5"/>
       <c r="M136" s="5"/>
       <c r="N136" s="4" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B137" s="5"/>
       <c r="C137" s="4" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -10004,15 +10079,17 @@
       <c r="L137" s="5"/>
       <c r="M137" s="5"/>
       <c r="N137" s="4" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B138" s="5"/>
-      <c r="C138" s="5"/>
+      <c r="C138" s="4" t="s">
+        <v>905</v>
+      </c>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
@@ -10024,7 +10101,7 @@
       <c r="L138" s="5"/>
       <c r="M138" s="5"/>
       <c r="N138" s="4" t="s">
-        <v>899</v>
+        <v>906</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -10044,7 +10121,7 @@
       <c r="L139" s="5"/>
       <c r="M139" s="5"/>
       <c r="N139" s="4" t="s">
-        <v>900</v>
+        <v>907</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -10052,7 +10129,9 @@
         <v>367</v>
       </c>
       <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
+      <c r="C140" s="4" t="s">
+        <v>908</v>
+      </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
@@ -10064,7 +10143,7 @@
       <c r="L140" s="5"/>
       <c r="M140" s="5"/>
       <c r="N140" s="4" t="s">
-        <v>901</v>
+        <v>909</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -10073,7 +10152,7 @@
       </c>
       <c r="B141" s="5"/>
       <c r="C141" s="4" t="s">
-        <v>902</v>
+        <v>910</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -10086,17 +10165,15 @@
       <c r="L141" s="5"/>
       <c r="M141" s="5"/>
       <c r="N141" s="4" t="s">
-        <v>903</v>
+        <v>911</v>
       </c>
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B142" s="5"/>
-      <c r="C142" s="4" t="s">
-        <v>904</v>
-      </c>
+      <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
@@ -10108,17 +10185,15 @@
       <c r="L142" s="5"/>
       <c r="M142" s="5"/>
       <c r="N142" s="4" t="s">
-        <v>905</v>
+        <v>912</v>
       </c>
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B143" s="5"/>
-      <c r="C143" s="4" t="s">
-        <v>906</v>
-      </c>
+      <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
@@ -10130,17 +10205,15 @@
       <c r="L143" s="5"/>
       <c r="M143" s="5"/>
       <c r="N143" s="4" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B144" s="5"/>
-      <c r="C144" s="4" t="s">
-        <v>908</v>
-      </c>
+      <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
@@ -10152,7 +10225,7 @@
       <c r="L144" s="5"/>
       <c r="M144" s="5"/>
       <c r="N144" s="4" t="s">
-        <v>909</v>
+        <v>914</v>
       </c>
     </row>
     <row r="145" spans="1:14">
@@ -10161,7 +10234,7 @@
       </c>
       <c r="B145" s="5"/>
       <c r="C145" s="4" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -10174,16 +10247,16 @@
       <c r="L145" s="5"/>
       <c r="M145" s="5"/>
       <c r="N145" s="4" t="s">
-        <v>911</v>
+        <v>916</v>
       </c>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B146" s="5"/>
       <c r="C146" s="4" t="s">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -10196,16 +10269,16 @@
       <c r="L146" s="5"/>
       <c r="M146" s="5"/>
       <c r="N146" s="4" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B147" s="5"/>
       <c r="C147" s="4" t="s">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -10218,16 +10291,16 @@
       <c r="L147" s="5"/>
       <c r="M147" s="5"/>
       <c r="N147" s="4" t="s">
-        <v>915</v>
+        <v>920</v>
       </c>
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B148" s="5"/>
       <c r="C148" s="4" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -10240,16 +10313,16 @@
       <c r="L148" s="5"/>
       <c r="M148" s="5"/>
       <c r="N148" s="4" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B149" s="5"/>
       <c r="C149" s="4" t="s">
-        <v>918</v>
+        <v>923</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -10262,16 +10335,16 @@
       <c r="L149" s="5"/>
       <c r="M149" s="5"/>
       <c r="N149" s="4" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B150" s="5"/>
       <c r="C150" s="4" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -10284,16 +10357,16 @@
       <c r="L150" s="5"/>
       <c r="M150" s="5"/>
       <c r="N150" s="4" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B151" s="5"/>
       <c r="C151" s="4" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -10306,16 +10379,16 @@
       <c r="L151" s="5"/>
       <c r="M151" s="5"/>
       <c r="N151" s="4" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="4" t="s">
-        <v>1</v>
+        <v>394</v>
       </c>
       <c r="B152" s="5"/>
       <c r="C152" s="4" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
@@ -10328,16 +10401,16 @@
       <c r="L152" s="5"/>
       <c r="M152" s="5"/>
       <c r="N152" s="4" t="s">
-        <v>925</v>
+        <v>930</v>
       </c>
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B153" s="5"/>
       <c r="C153" s="4" t="s">
-        <v>926</v>
+        <v>931</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -10350,7 +10423,7 @@
       <c r="L153" s="5"/>
       <c r="M153" s="5"/>
       <c r="N153" s="4" t="s">
-        <v>927</v>
+        <v>932</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -10359,7 +10432,7 @@
       </c>
       <c r="B154" s="5"/>
       <c r="C154" s="4" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
@@ -10372,16 +10445,16 @@
       <c r="L154" s="5"/>
       <c r="M154" s="5"/>
       <c r="N154" s="4" t="s">
-        <v>929</v>
+        <v>934</v>
       </c>
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B155" s="5"/>
       <c r="C155" s="4" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
@@ -10394,16 +10467,16 @@
       <c r="L155" s="5"/>
       <c r="M155" s="5"/>
       <c r="N155" s="4" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="4" t="s">
-        <v>404</v>
+        <v>1</v>
       </c>
       <c r="B156" s="5"/>
       <c r="C156" s="4" t="s">
-        <v>932</v>
+        <v>937</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
@@ -10416,16 +10489,16 @@
       <c r="L156" s="5"/>
       <c r="M156" s="5"/>
       <c r="N156" s="4" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B157" s="5"/>
       <c r="C157" s="4" t="s">
-        <v>934</v>
+        <v>939</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -10438,16 +10511,16 @@
       <c r="L157" s="5"/>
       <c r="M157" s="5"/>
       <c r="N157" s="4" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="4" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B158" s="5"/>
       <c r="C158" s="4" t="s">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -10460,16 +10533,16 @@
       <c r="L158" s="5"/>
       <c r="M158" s="5"/>
       <c r="N158" s="4" t="s">
-        <v>937</v>
+        <v>942</v>
       </c>
     </row>
     <row r="159" spans="1:14">
       <c r="A159" s="4" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B159" s="5"/>
       <c r="C159" s="4" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
@@ -10482,16 +10555,16 @@
       <c r="L159" s="5"/>
       <c r="M159" s="5"/>
       <c r="N159" s="4" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="4" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B160" s="5"/>
       <c r="C160" s="4" t="s">
-        <v>940</v>
+        <v>945</v>
       </c>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
@@ -10504,16 +10577,16 @@
       <c r="L160" s="5"/>
       <c r="M160" s="5"/>
       <c r="N160" s="4" t="s">
-        <v>941</v>
+        <v>946</v>
       </c>
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B161" s="5"/>
       <c r="C161" s="4" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -10526,16 +10599,16 @@
       <c r="L161" s="5"/>
       <c r="M161" s="5"/>
       <c r="N161" s="4" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B162" s="5"/>
       <c r="C162" s="4" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -10548,7 +10621,7 @@
       <c r="L162" s="5"/>
       <c r="M162" s="5"/>
       <c r="N162" s="4" t="s">
-        <v>945</v>
+        <v>950</v>
       </c>
     </row>
     <row r="163" spans="1:14">
@@ -10557,7 +10630,7 @@
       </c>
       <c r="B163" s="5"/>
       <c r="C163" s="4" t="s">
-        <v>946</v>
+        <v>951</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -10570,7 +10643,7 @@
       <c r="L163" s="5"/>
       <c r="M163" s="5"/>
       <c r="N163" s="4" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
     </row>
     <row r="164" spans="1:14">
@@ -10579,7 +10652,7 @@
       </c>
       <c r="B164" s="5"/>
       <c r="C164" s="4" t="s">
-        <v>948</v>
+        <v>953</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -10592,16 +10665,16 @@
       <c r="L164" s="5"/>
       <c r="M164" s="5"/>
       <c r="N164" s="4" t="s">
-        <v>949</v>
+        <v>954</v>
       </c>
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B165" s="5"/>
       <c r="C165" s="4" t="s">
-        <v>950</v>
+        <v>955</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -10614,7 +10687,7 @@
       <c r="L165" s="5"/>
       <c r="M165" s="5"/>
       <c r="N165" s="4" t="s">
-        <v>951</v>
+        <v>956</v>
       </c>
     </row>
     <row r="166" spans="1:14">
@@ -10623,7 +10696,7 @@
       </c>
       <c r="B166" s="5"/>
       <c r="C166" s="4" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -10636,7 +10709,7 @@
       <c r="L166" s="5"/>
       <c r="M166" s="5"/>
       <c r="N166" s="4" t="s">
-        <v>953</v>
+        <v>958</v>
       </c>
     </row>
     <row r="167" spans="1:14">
@@ -10645,7 +10718,7 @@
       </c>
       <c r="B167" s="5"/>
       <c r="C167" s="4" t="s">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -10658,16 +10731,16 @@
       <c r="L167" s="5"/>
       <c r="M167" s="5"/>
       <c r="N167" s="4" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B168" s="5"/>
       <c r="C168" s="4" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -10680,16 +10753,16 @@
       <c r="L168" s="5"/>
       <c r="M168" s="5"/>
       <c r="N168" s="4" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B169" s="5"/>
       <c r="C169" s="4" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -10702,16 +10775,16 @@
       <c r="L169" s="5"/>
       <c r="M169" s="5"/>
       <c r="N169" s="4" t="s">
-        <v>959</v>
+        <v>964</v>
       </c>
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B170" s="5"/>
       <c r="C170" s="4" t="s">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -10724,16 +10797,16 @@
       <c r="L170" s="5"/>
       <c r="M170" s="5"/>
       <c r="N170" s="4" t="s">
-        <v>961</v>
+        <v>966</v>
       </c>
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B171" s="5"/>
       <c r="C171" s="4" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
@@ -10746,7 +10819,7 @@
       <c r="L171" s="5"/>
       <c r="M171" s="5"/>
       <c r="N171" s="4" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
     </row>
     <row r="172" spans="1:14">
@@ -10755,7 +10828,7 @@
       </c>
       <c r="B172" s="5"/>
       <c r="C172" s="4" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -10768,7 +10841,7 @@
       <c r="L172" s="5"/>
       <c r="M172" s="5"/>
       <c r="N172" s="4" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
     </row>
     <row r="173" spans="1:14">
@@ -10777,7 +10850,7 @@
       </c>
       <c r="B173" s="5"/>
       <c r="C173" s="4" t="s">
-        <v>966</v>
+        <v>971</v>
       </c>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
@@ -10790,16 +10863,16 @@
       <c r="L173" s="5"/>
       <c r="M173" s="5"/>
       <c r="N173" s="4" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
     </row>
     <row r="174" spans="1:14">
       <c r="A174" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B174" s="5"/>
       <c r="C174" s="4" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
@@ -10812,16 +10885,16 @@
       <c r="L174" s="5"/>
       <c r="M174" s="5"/>
       <c r="N174" s="4" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
     </row>
     <row r="175" spans="1:14">
       <c r="A175" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B175" s="5"/>
       <c r="C175" s="4" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
@@ -10834,7 +10907,7 @@
       <c r="L175" s="5"/>
       <c r="M175" s="5"/>
       <c r="N175" s="4" t="s">
-        <v>858</v>
+        <v>976</v>
       </c>
     </row>
     <row r="176" spans="1:14">
@@ -10843,7 +10916,7 @@
       </c>
       <c r="B176" s="5"/>
       <c r="C176" s="4" t="s">
-        <v>971</v>
+        <v>977</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
@@ -10856,7 +10929,7 @@
       <c r="L176" s="5"/>
       <c r="M176" s="5"/>
       <c r="N176" s="4" t="s">
-        <v>972</v>
+        <v>978</v>
       </c>
     </row>
     <row r="177" spans="1:14">
@@ -10865,7 +10938,7 @@
       </c>
       <c r="B177" s="5"/>
       <c r="C177" s="4" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
@@ -10878,16 +10951,16 @@
       <c r="L177" s="5"/>
       <c r="M177" s="5"/>
       <c r="N177" s="4" t="s">
-        <v>854</v>
+        <v>980</v>
       </c>
     </row>
     <row r="178" spans="1:14">
       <c r="A178" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B178" s="5"/>
       <c r="C178" s="4" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
@@ -10900,16 +10973,16 @@
       <c r="L178" s="5"/>
       <c r="M178" s="5"/>
       <c r="N178" s="4" t="s">
-        <v>457</v>
+        <v>982</v>
       </c>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B179" s="5"/>
       <c r="C179" s="4" t="s">
-        <v>975</v>
+        <v>983</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
@@ -10922,16 +10995,16 @@
       <c r="L179" s="5"/>
       <c r="M179" s="5"/>
       <c r="N179" s="4" t="s">
-        <v>976</v>
+        <v>871</v>
       </c>
     </row>
     <row r="180" spans="1:14">
       <c r="A180" s="4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B180" s="5"/>
       <c r="C180" s="4" t="s">
-        <v>977</v>
+        <v>984</v>
       </c>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
@@ -10944,16 +11017,16 @@
       <c r="L180" s="5"/>
       <c r="M180" s="5"/>
       <c r="N180" s="4" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
     </row>
     <row r="181" spans="1:14">
       <c r="A181" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B181" s="5"/>
       <c r="C181" s="4" t="s">
-        <v>979</v>
+        <v>986</v>
       </c>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
@@ -10966,16 +11039,16 @@
       <c r="L181" s="5"/>
       <c r="M181" s="5"/>
       <c r="N181" s="4" t="s">
-        <v>980</v>
+        <v>867</v>
       </c>
     </row>
     <row r="182" spans="1:14">
       <c r="A182" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B182" s="5"/>
       <c r="C182" s="4" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
@@ -10988,7 +11061,7 @@
       <c r="L182" s="5"/>
       <c r="M182" s="5"/>
       <c r="N182" s="4" t="s">
-        <v>982</v>
+        <v>466</v>
       </c>
     </row>
     <row r="183" spans="1:14">
@@ -10997,7 +11070,7 @@
       </c>
       <c r="B183" s="5"/>
       <c r="C183" s="4" t="s">
-        <v>902</v>
+        <v>988</v>
       </c>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
@@ -11010,7 +11083,7 @@
       <c r="L183" s="5"/>
       <c r="M183" s="5"/>
       <c r="N183" s="4" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
     </row>
     <row r="184" spans="1:14">
@@ -11019,7 +11092,7 @@
       </c>
       <c r="B184" s="5"/>
       <c r="C184" s="4" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
@@ -11032,7 +11105,7 @@
       <c r="L184" s="5"/>
       <c r="M184" s="5"/>
       <c r="N184" s="4" t="s">
-        <v>470</v>
+        <v>991</v>
       </c>
     </row>
     <row r="185" spans="1:14">
@@ -11041,7 +11114,7 @@
       </c>
       <c r="B185" s="5"/>
       <c r="C185" s="4" t="s">
-        <v>985</v>
+        <v>992</v>
       </c>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
@@ -11054,7 +11127,7 @@
       <c r="L185" s="5"/>
       <c r="M185" s="5"/>
       <c r="N185" s="4" t="s">
-        <v>986</v>
+        <v>993</v>
       </c>
     </row>
     <row r="186" spans="1:14">
@@ -11063,7 +11136,7 @@
       </c>
       <c r="B186" s="5"/>
       <c r="C186" s="4" t="s">
-        <v>987</v>
+        <v>994</v>
       </c>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
@@ -11076,16 +11149,16 @@
       <c r="L186" s="5"/>
       <c r="M186" s="5"/>
       <c r="N186" s="4" t="s">
-        <v>988</v>
+        <v>995</v>
       </c>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B187" s="5"/>
       <c r="C187" s="4" t="s">
-        <v>989</v>
+        <v>915</v>
       </c>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
@@ -11098,16 +11171,16 @@
       <c r="L187" s="5"/>
       <c r="M187" s="5"/>
       <c r="N187" s="4" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B188" s="5"/>
       <c r="C188" s="4" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
@@ -11120,16 +11193,16 @@
       <c r="L188" s="5"/>
       <c r="M188" s="5"/>
       <c r="N188" s="4" t="s">
-        <v>992</v>
+        <v>479</v>
       </c>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B189" s="5"/>
       <c r="C189" s="4" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
@@ -11142,16 +11215,16 @@
       <c r="L189" s="5"/>
       <c r="M189" s="5"/>
       <c r="N189" s="4" t="s">
-        <v>994</v>
+        <v>999</v>
       </c>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B190" s="5"/>
       <c r="C190" s="4" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
@@ -11164,16 +11237,16 @@
       <c r="L190" s="5"/>
       <c r="M190" s="5"/>
       <c r="N190" s="4" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B191" s="5"/>
       <c r="C191" s="4" t="s">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
@@ -11186,16 +11259,16 @@
       <c r="L191" s="5"/>
       <c r="M191" s="5"/>
       <c r="N191" s="4" t="s">
-        <v>998</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B192" s="5"/>
       <c r="C192" s="4" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
@@ -11208,16 +11281,16 @@
       <c r="L192" s="5"/>
       <c r="M192" s="5"/>
       <c r="N192" s="4" t="s">
-        <v>885</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="193" spans="1:14">
       <c r="A193" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B193" s="5"/>
       <c r="C193" s="4" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
@@ -11230,16 +11303,16 @@
       <c r="L193" s="5"/>
       <c r="M193" s="5"/>
       <c r="N193" s="4" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="194" spans="1:14">
       <c r="A194" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B194" s="5"/>
       <c r="C194" s="4" t="s">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
@@ -11252,16 +11325,16 @@
       <c r="L194" s="5"/>
       <c r="M194" s="5"/>
       <c r="N194" s="4" t="s">
-        <v>1003</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B195" s="5"/>
       <c r="C195" s="4" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
@@ -11274,16 +11347,16 @@
       <c r="L195" s="5"/>
       <c r="M195" s="5"/>
       <c r="N195" s="4" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B196" s="5"/>
       <c r="C196" s="4" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
@@ -11296,16 +11369,16 @@
       <c r="L196" s="5"/>
       <c r="M196" s="5"/>
       <c r="N196" s="4" t="s">
-        <v>1007</v>
+        <v>898</v>
       </c>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B197" s="5"/>
       <c r="C197" s="4" t="s">
-        <v>1008</v>
+        <v>1013</v>
       </c>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
@@ -11318,16 +11391,16 @@
       <c r="L197" s="5"/>
       <c r="M197" s="5"/>
       <c r="N197" s="4" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B198" s="5"/>
       <c r="C198" s="4" t="s">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
@@ -11340,16 +11413,16 @@
       <c r="L198" s="5"/>
       <c r="M198" s="5"/>
       <c r="N198" s="4" t="s">
-        <v>1011</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B199" s="5"/>
       <c r="C199" s="4" t="s">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
@@ -11362,16 +11435,16 @@
       <c r="L199" s="5"/>
       <c r="M199" s="5"/>
       <c r="N199" s="4" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="200" spans="1:14">
       <c r="A200" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B200" s="5"/>
       <c r="C200" s="4" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
@@ -11384,16 +11457,16 @@
       <c r="L200" s="5"/>
       <c r="M200" s="5"/>
       <c r="N200" s="4" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B201" s="5"/>
       <c r="C201" s="4" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
@@ -11406,16 +11479,16 @@
       <c r="L201" s="5"/>
       <c r="M201" s="5"/>
       <c r="N201" s="4" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="202" spans="1:14">
       <c r="A202" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B202" s="5"/>
       <c r="C202" s="4" t="s">
-        <v>1018</v>
+        <v>1023</v>
       </c>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
@@ -11428,16 +11501,16 @@
       <c r="L202" s="5"/>
       <c r="M202" s="5"/>
       <c r="N202" s="4" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="4" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B203" s="5"/>
       <c r="C203" s="4" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
@@ -11450,16 +11523,16 @@
       <c r="L203" s="5"/>
       <c r="M203" s="5"/>
       <c r="N203" s="4" t="s">
-        <v>1021</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="204" spans="1:14">
       <c r="A204" s="4" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B204" s="5"/>
       <c r="C204" s="4" t="s">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
@@ -11472,16 +11545,16 @@
       <c r="L204" s="5"/>
       <c r="M204" s="5"/>
       <c r="N204" s="4" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="4" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B205" s="5"/>
       <c r="C205" s="4" t="s">
-        <v>1024</v>
+        <v>1029</v>
       </c>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
@@ -11494,16 +11567,16 @@
       <c r="L205" s="5"/>
       <c r="M205" s="5"/>
       <c r="N205" s="4" t="s">
-        <v>1025</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="206" spans="1:14">
       <c r="A206" s="4" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B206" s="5"/>
       <c r="C206" s="4" t="s">
-        <v>1026</v>
+        <v>1031</v>
       </c>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
@@ -11516,16 +11589,16 @@
       <c r="L206" s="5"/>
       <c r="M206" s="5"/>
       <c r="N206" s="4" t="s">
-        <v>1027</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="4" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B207" s="5"/>
       <c r="C207" s="4" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
@@ -11538,16 +11611,16 @@
       <c r="L207" s="5"/>
       <c r="M207" s="5"/>
       <c r="N207" s="4" t="s">
-        <v>1029</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="208" spans="1:14">
       <c r="A208" s="4" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B208" s="5"/>
       <c r="C208" s="4" t="s">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
@@ -11560,16 +11633,16 @@
       <c r="L208" s="5"/>
       <c r="M208" s="5"/>
       <c r="N208" s="4" t="s">
-        <v>1031</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="209" spans="1:14">
       <c r="A209" s="4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B209" s="5"/>
       <c r="C209" s="4" t="s">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
@@ -11582,16 +11655,16 @@
       <c r="L209" s="5"/>
       <c r="M209" s="5"/>
       <c r="N209" s="4" t="s">
-        <v>1033</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="210" spans="1:14">
       <c r="A210" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B210" s="5"/>
       <c r="C210" s="4" t="s">
-        <v>1034</v>
+        <v>1039</v>
       </c>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
@@ -11604,16 +11677,16 @@
       <c r="L210" s="5"/>
       <c r="M210" s="5"/>
       <c r="N210" s="4" t="s">
-        <v>1035</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B211" s="5"/>
       <c r="C211" s="4" t="s">
-        <v>1036</v>
+        <v>1041</v>
       </c>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
@@ -11626,16 +11699,16 @@
       <c r="L211" s="5"/>
       <c r="M211" s="5"/>
       <c r="N211" s="4" t="s">
-        <v>522</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="212" spans="1:14">
       <c r="A212" s="4" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B212" s="5"/>
       <c r="C212" s="4" t="s">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
@@ -11648,16 +11721,16 @@
       <c r="L212" s="5"/>
       <c r="M212" s="5"/>
       <c r="N212" s="4" t="s">
-        <v>1038</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="213" spans="1:14">
       <c r="A213" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B213" s="5"/>
       <c r="C213" s="4" t="s">
-        <v>1039</v>
+        <v>1045</v>
       </c>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
@@ -11670,16 +11743,16 @@
       <c r="L213" s="5"/>
       <c r="M213" s="5"/>
       <c r="N213" s="4" t="s">
-        <v>1040</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="214" spans="1:14">
       <c r="A214" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B214" s="5"/>
       <c r="C214" s="4" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
@@ -11692,16 +11765,16 @@
       <c r="L214" s="5"/>
       <c r="M214" s="5"/>
       <c r="N214" s="4" t="s">
-        <v>1042</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B215" s="5"/>
       <c r="C215" s="4" t="s">
-        <v>786</v>
+        <v>1049</v>
       </c>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
@@ -11714,16 +11787,16 @@
       <c r="L215" s="5"/>
       <c r="M215" s="5"/>
       <c r="N215" s="4" t="s">
-        <v>1043</v>
+        <v>531</v>
       </c>
     </row>
     <row r="216" spans="1:14">
       <c r="A216" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B216" s="5"/>
       <c r="C216" s="4" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
@@ -11736,16 +11809,16 @@
       <c r="L216" s="5"/>
       <c r="M216" s="5"/>
       <c r="N216" s="4" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B217" s="5"/>
       <c r="C217" s="4" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
@@ -11758,16 +11831,16 @@
       <c r="L217" s="5"/>
       <c r="M217" s="5"/>
       <c r="N217" s="4" t="s">
-        <v>1047</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B218" s="5"/>
       <c r="C218" s="4" t="s">
-        <v>798</v>
+        <v>1054</v>
       </c>
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
@@ -11780,16 +11853,16 @@
       <c r="L218" s="5"/>
       <c r="M218" s="5"/>
       <c r="N218" s="4" t="s">
-        <v>799</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B219" s="5"/>
       <c r="C219" s="4" t="s">
-        <v>1048</v>
+        <v>799</v>
       </c>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
@@ -11802,16 +11875,16 @@
       <c r="L219" s="5"/>
       <c r="M219" s="5"/>
       <c r="N219" s="4" t="s">
-        <v>1049</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B220" s="5"/>
       <c r="C220" s="4" t="s">
-        <v>1050</v>
+        <v>1057</v>
       </c>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
@@ -11824,16 +11897,16 @@
       <c r="L220" s="5"/>
       <c r="M220" s="5"/>
       <c r="N220" s="4" t="s">
-        <v>1051</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B221" s="5"/>
       <c r="C221" s="4" t="s">
-        <v>1052</v>
+        <v>1059</v>
       </c>
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
@@ -11846,16 +11919,16 @@
       <c r="L221" s="5"/>
       <c r="M221" s="5"/>
       <c r="N221" s="4" t="s">
-        <v>1053</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B222" s="5"/>
       <c r="C222" s="4" t="s">
-        <v>1054</v>
+        <v>811</v>
       </c>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
@@ -11868,16 +11941,16 @@
       <c r="L222" s="5"/>
       <c r="M222" s="5"/>
       <c r="N222" s="4" t="s">
-        <v>1055</v>
+        <v>812</v>
       </c>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="4" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B223" s="5"/>
       <c r="C223" s="4" t="s">
-        <v>1056</v>
+        <v>1061</v>
       </c>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
@@ -11890,16 +11963,16 @@
       <c r="L223" s="5"/>
       <c r="M223" s="5"/>
       <c r="N223" s="4" t="s">
-        <v>1057</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="224" spans="1:14">
       <c r="A224" s="4" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B224" s="5"/>
       <c r="C224" s="4" t="s">
-        <v>1058</v>
+        <v>1063</v>
       </c>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
@@ -11912,16 +11985,16 @@
       <c r="L224" s="5"/>
       <c r="M224" s="5"/>
       <c r="N224" s="4" t="s">
-        <v>1059</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="225" spans="1:14">
       <c r="A225" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B225" s="5"/>
       <c r="C225" s="4" t="s">
-        <v>1060</v>
+        <v>1065</v>
       </c>
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
@@ -11934,7 +12007,7 @@
       <c r="L225" s="5"/>
       <c r="M225" s="5"/>
       <c r="N225" s="4" t="s">
-        <v>1061</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="226" spans="1:14">
@@ -11943,7 +12016,7 @@
       </c>
       <c r="B226" s="5"/>
       <c r="C226" s="4" t="s">
-        <v>1062</v>
+        <v>1067</v>
       </c>
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
@@ -11956,7 +12029,7 @@
       <c r="L226" s="5"/>
       <c r="M226" s="5"/>
       <c r="N226" s="4" t="s">
-        <v>1063</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="227" spans="1:14">
@@ -11965,7 +12038,7 @@
       </c>
       <c r="B227" s="5"/>
       <c r="C227" s="4" t="s">
-        <v>1064</v>
+        <v>1069</v>
       </c>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
@@ -11978,16 +12051,16 @@
       <c r="L227" s="5"/>
       <c r="M227" s="5"/>
       <c r="N227" s="4" t="s">
-        <v>1065</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="228" spans="1:14">
       <c r="A228" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B228" s="5"/>
       <c r="C228" s="4" t="s">
-        <v>1066</v>
+        <v>1071</v>
       </c>
       <c r="D228" s="5"/>
       <c r="E228" s="5"/>
@@ -12000,16 +12073,16 @@
       <c r="L228" s="5"/>
       <c r="M228" s="5"/>
       <c r="N228" s="4" t="s">
-        <v>1067</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="229" spans="1:14">
       <c r="A229" s="4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B229" s="5"/>
       <c r="C229" s="4" t="s">
-        <v>1068</v>
+        <v>1073</v>
       </c>
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
@@ -12022,16 +12095,16 @@
       <c r="L229" s="5"/>
       <c r="M229" s="5"/>
       <c r="N229" s="4" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="230" spans="1:14">
       <c r="A230" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B230" s="5"/>
       <c r="C230" s="4" t="s">
-        <v>1070</v>
+        <v>1075</v>
       </c>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
@@ -12044,16 +12117,16 @@
       <c r="L230" s="5"/>
       <c r="M230" s="5"/>
       <c r="N230" s="4" t="s">
-        <v>1071</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="231" spans="1:14">
       <c r="A231" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B231" s="5"/>
       <c r="C231" s="4" t="s">
-        <v>1072</v>
+        <v>1077</v>
       </c>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
@@ -12066,16 +12139,16 @@
       <c r="L231" s="5"/>
       <c r="M231" s="5"/>
       <c r="N231" s="4" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="232" spans="1:14">
       <c r="A232" s="4" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B232" s="5"/>
       <c r="C232" s="4" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
@@ -12088,16 +12161,16 @@
       <c r="L232" s="5"/>
       <c r="M232" s="5"/>
       <c r="N232" s="4" t="s">
-        <v>1075</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="233" spans="1:14">
       <c r="A233" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B233" s="5"/>
       <c r="C233" s="4" t="s">
-        <v>1076</v>
+        <v>1081</v>
       </c>
       <c r="D233" s="5"/>
       <c r="E233" s="5"/>
@@ -12110,16 +12183,16 @@
       <c r="L233" s="5"/>
       <c r="M233" s="5"/>
       <c r="N233" s="4" t="s">
-        <v>1077</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="234" spans="1:14">
       <c r="A234" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B234" s="5"/>
       <c r="C234" s="4" t="s">
-        <v>1078</v>
+        <v>1083</v>
       </c>
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
@@ -12132,16 +12205,16 @@
       <c r="L234" s="5"/>
       <c r="M234" s="5"/>
       <c r="N234" s="4" t="s">
-        <v>1079</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B235" s="5"/>
       <c r="C235" s="4" t="s">
-        <v>778</v>
+        <v>1085</v>
       </c>
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
@@ -12154,16 +12227,16 @@
       <c r="L235" s="5"/>
       <c r="M235" s="5"/>
       <c r="N235" s="4" t="s">
-        <v>779</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="236" spans="1:14">
       <c r="A236" s="4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B236" s="5"/>
       <c r="C236" s="4" t="s">
-        <v>1080</v>
+        <v>1087</v>
       </c>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
@@ -12176,16 +12249,16 @@
       <c r="L236" s="5"/>
       <c r="M236" s="5"/>
       <c r="N236" s="4" t="s">
-        <v>1081</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="237" spans="1:14">
       <c r="A237" s="4" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B237" s="5"/>
       <c r="C237" s="4" t="s">
-        <v>1082</v>
+        <v>1089</v>
       </c>
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
@@ -12198,16 +12271,16 @@
       <c r="L237" s="5"/>
       <c r="M237" s="5"/>
       <c r="N237" s="4" t="s">
-        <v>1083</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="238" spans="1:14">
       <c r="A238" s="4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B238" s="5"/>
       <c r="C238" s="4" t="s">
-        <v>1084</v>
+        <v>1091</v>
       </c>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
@@ -12220,16 +12293,16 @@
       <c r="L238" s="5"/>
       <c r="M238" s="5"/>
       <c r="N238" s="4" t="s">
-        <v>1085</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="4" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B239" s="5"/>
       <c r="C239" s="4" t="s">
-        <v>1086</v>
+        <v>791</v>
       </c>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
@@ -12242,16 +12315,16 @@
       <c r="L239" s="5"/>
       <c r="M239" s="5"/>
       <c r="N239" s="4" t="s">
-        <v>1087</v>
+        <v>792</v>
       </c>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="4" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B240" s="5"/>
       <c r="C240" s="4" t="s">
-        <v>1088</v>
+        <v>1093</v>
       </c>
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
@@ -12264,16 +12337,16 @@
       <c r="L240" s="5"/>
       <c r="M240" s="5"/>
       <c r="N240" s="4" t="s">
-        <v>1089</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="241" spans="1:14">
       <c r="A241" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B241" s="5"/>
       <c r="C241" s="4" t="s">
-        <v>1090</v>
+        <v>1095</v>
       </c>
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
@@ -12286,16 +12359,16 @@
       <c r="L241" s="5"/>
       <c r="M241" s="5"/>
       <c r="N241" s="4" t="s">
-        <v>1091</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="242" spans="1:14">
       <c r="A242" s="4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B242" s="5"/>
       <c r="C242" s="4" t="s">
-        <v>1092</v>
+        <v>1097</v>
       </c>
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
@@ -12308,16 +12381,16 @@
       <c r="L242" s="5"/>
       <c r="M242" s="5"/>
       <c r="N242" s="4" t="s">
-        <v>1093</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="243" spans="1:14">
       <c r="A243" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B243" s="5"/>
       <c r="C243" s="4" t="s">
-        <v>1094</v>
+        <v>1099</v>
       </c>
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
@@ -12330,16 +12403,16 @@
       <c r="L243" s="5"/>
       <c r="M243" s="5"/>
       <c r="N243" s="4" t="s">
-        <v>1095</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="244" spans="1:14">
       <c r="A244" s="4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B244" s="5"/>
       <c r="C244" s="4" t="s">
-        <v>1096</v>
+        <v>1101</v>
       </c>
       <c r="D244" s="5"/>
       <c r="E244" s="5"/>
@@ -12352,16 +12425,16 @@
       <c r="L244" s="5"/>
       <c r="M244" s="5"/>
       <c r="N244" s="4" t="s">
-        <v>1097</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="245" spans="1:14">
       <c r="A245" s="4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B245" s="5"/>
       <c r="C245" s="4" t="s">
-        <v>1098</v>
+        <v>1103</v>
       </c>
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
@@ -12374,16 +12447,16 @@
       <c r="L245" s="5"/>
       <c r="M245" s="5"/>
       <c r="N245" s="4" t="s">
-        <v>1099</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="246" spans="1:14">
       <c r="A246" s="4" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B246" s="5"/>
       <c r="C246" s="4" t="s">
-        <v>1100</v>
+        <v>1105</v>
       </c>
       <c r="D246" s="5"/>
       <c r="E246" s="5"/>
@@ -12396,7 +12469,7 @@
       <c r="L246" s="5"/>
       <c r="M246" s="5"/>
       <c r="N246" s="4" t="s">
-        <v>1101</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="247" spans="1:14">
@@ -12405,7 +12478,7 @@
       </c>
       <c r="B247" s="5"/>
       <c r="C247" s="4" t="s">
-        <v>1102</v>
+        <v>1107</v>
       </c>
       <c r="D247" s="5"/>
       <c r="E247" s="5"/>
@@ -12418,7 +12491,7 @@
       <c r="L247" s="5"/>
       <c r="M247" s="5"/>
       <c r="N247" s="4" t="s">
-        <v>1103</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="248" spans="1:14">
@@ -12427,7 +12500,7 @@
       </c>
       <c r="B248" s="5"/>
       <c r="C248" s="4" t="s">
-        <v>1104</v>
+        <v>1109</v>
       </c>
       <c r="D248" s="5"/>
       <c r="E248" s="5"/>
@@ -12440,7 +12513,7 @@
       <c r="L248" s="5"/>
       <c r="M248" s="5"/>
       <c r="N248" s="4" t="s">
-        <v>1105</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="249" spans="1:14">
@@ -12449,7 +12522,7 @@
       </c>
       <c r="B249" s="5"/>
       <c r="C249" s="4" t="s">
-        <v>1106</v>
+        <v>1111</v>
       </c>
       <c r="D249" s="5"/>
       <c r="E249" s="5"/>
@@ -12462,7 +12535,7 @@
       <c r="L249" s="5"/>
       <c r="M249" s="5"/>
       <c r="N249" s="4" t="s">
-        <v>1107</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="250" spans="1:14">
@@ -12471,7 +12544,7 @@
       </c>
       <c r="B250" s="5"/>
       <c r="C250" s="4" t="s">
-        <v>1108</v>
+        <v>1113</v>
       </c>
       <c r="D250" s="5"/>
       <c r="E250" s="5"/>
@@ -12484,7 +12557,7 @@
       <c r="L250" s="5"/>
       <c r="M250" s="5"/>
       <c r="N250" s="4" t="s">
-        <v>1109</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="251" spans="1:14">
@@ -12493,7 +12566,7 @@
       </c>
       <c r="B251" s="5"/>
       <c r="C251" s="4" t="s">
-        <v>1110</v>
+        <v>1115</v>
       </c>
       <c r="D251" s="5"/>
       <c r="E251" s="5"/>
@@ -12506,7 +12579,7 @@
       <c r="L251" s="5"/>
       <c r="M251" s="5"/>
       <c r="N251" s="4" t="s">
-        <v>1111</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="252" spans="1:14">
@@ -12515,7 +12588,7 @@
       </c>
       <c r="B252" s="5"/>
       <c r="C252" s="4" t="s">
-        <v>1112</v>
+        <v>1117</v>
       </c>
       <c r="D252" s="5"/>
       <c r="E252" s="5"/>
@@ -12528,7 +12601,7 @@
       <c r="L252" s="5"/>
       <c r="M252" s="5"/>
       <c r="N252" s="4" t="s">
-        <v>1113</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="253" spans="1:14">
@@ -12537,7 +12610,7 @@
       </c>
       <c r="B253" s="5"/>
       <c r="C253" s="4" t="s">
-        <v>1114</v>
+        <v>1119</v>
       </c>
       <c r="D253" s="5"/>
       <c r="E253" s="5"/>
@@ -12550,7 +12623,7 @@
       <c r="L253" s="5"/>
       <c r="M253" s="5"/>
       <c r="N253" s="4" t="s">
-        <v>1115</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="254" spans="1:14">
@@ -12559,7 +12632,7 @@
       </c>
       <c r="B254" s="5"/>
       <c r="C254" s="4" t="s">
-        <v>1116</v>
+        <v>1121</v>
       </c>
       <c r="D254" s="5"/>
       <c r="E254" s="5"/>
@@ -12572,16 +12645,16 @@
       <c r="L254" s="5"/>
       <c r="M254" s="5"/>
       <c r="N254" s="4" t="s">
-        <v>1117</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="255" spans="1:14">
       <c r="A255" s="4" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B255" s="5"/>
       <c r="C255" s="4" t="s">
-        <v>1118</v>
+        <v>1123</v>
       </c>
       <c r="D255" s="5"/>
       <c r="E255" s="5"/>
@@ -12594,16 +12667,16 @@
       <c r="L255" s="5"/>
       <c r="M255" s="5"/>
       <c r="N255" s="4" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="256" spans="1:14">
       <c r="A256" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B256" s="5"/>
       <c r="C256" s="4" t="s">
-        <v>1120</v>
+        <v>1125</v>
       </c>
       <c r="D256" s="5"/>
       <c r="E256" s="5"/>
@@ -12616,15 +12689,17 @@
       <c r="L256" s="5"/>
       <c r="M256" s="5"/>
       <c r="N256" s="4" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="257" spans="1:14">
       <c r="A257" s="4" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B257" s="5"/>
-      <c r="C257" s="5"/>
+      <c r="C257" s="4" t="s">
+        <v>1127</v>
+      </c>
       <c r="D257" s="5"/>
       <c r="E257" s="5"/>
       <c r="F257" s="5"/>
@@ -12636,16 +12711,16 @@
       <c r="L257" s="5"/>
       <c r="M257" s="5"/>
       <c r="N257" s="4" t="s">
-        <v>1122</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="258" spans="1:14">
       <c r="A258" s="4" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B258" s="5"/>
       <c r="C258" s="4" t="s">
-        <v>1123</v>
+        <v>1129</v>
       </c>
       <c r="D258" s="5"/>
       <c r="E258" s="5"/>
@@ -12658,7 +12733,7 @@
       <c r="L258" s="5"/>
       <c r="M258" s="5"/>
       <c r="N258" s="4" t="s">
-        <v>1124</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="259" spans="1:14">
@@ -12667,7 +12742,7 @@
       </c>
       <c r="B259" s="5"/>
       <c r="C259" s="4" t="s">
-        <v>1090</v>
+        <v>1131</v>
       </c>
       <c r="D259" s="5"/>
       <c r="E259" s="5"/>
@@ -12680,7 +12755,7 @@
       <c r="L259" s="5"/>
       <c r="M259" s="5"/>
       <c r="N259" s="4" t="s">
-        <v>1125</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="260" spans="1:14">
@@ -12689,7 +12764,7 @@
       </c>
       <c r="B260" s="5"/>
       <c r="C260" s="4" t="s">
-        <v>1126</v>
+        <v>1133</v>
       </c>
       <c r="D260" s="5"/>
       <c r="E260" s="5"/>
@@ -12702,7 +12777,7 @@
       <c r="L260" s="5"/>
       <c r="M260" s="5"/>
       <c r="N260" s="4" t="s">
-        <v>1127</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="261" spans="1:14">
@@ -12710,9 +12785,7 @@
         <v>631</v>
       </c>
       <c r="B261" s="5"/>
-      <c r="C261" s="4" t="s">
-        <v>1128</v>
-      </c>
+      <c r="C261" s="5"/>
       <c r="D261" s="5"/>
       <c r="E261" s="5"/>
       <c r="F261" s="5"/>
@@ -12724,7 +12797,7 @@
       <c r="L261" s="5"/>
       <c r="M261" s="5"/>
       <c r="N261" s="4" t="s">
-        <v>1129</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="262" spans="1:14">
@@ -12733,7 +12806,7 @@
       </c>
       <c r="B262" s="5"/>
       <c r="C262" s="4" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="D262" s="5"/>
       <c r="E262" s="5"/>
@@ -12746,16 +12819,16 @@
       <c r="L262" s="5"/>
       <c r="M262" s="5"/>
       <c r="N262" s="4" t="s">
-        <v>1131</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="263" spans="1:14">
       <c r="A263" s="4" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B263" s="5"/>
       <c r="C263" s="4" t="s">
-        <v>1132</v>
+        <v>1103</v>
       </c>
       <c r="D263" s="5"/>
       <c r="E263" s="5"/>
@@ -12768,15 +12841,17 @@
       <c r="L263" s="5"/>
       <c r="M263" s="5"/>
       <c r="N263" s="4" t="s">
-        <v>1133</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="264" spans="1:14">
       <c r="A264" s="4" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B264" s="5"/>
-      <c r="C264" s="5"/>
+      <c r="C264" s="4" t="s">
+        <v>1139</v>
+      </c>
       <c r="D264" s="5"/>
       <c r="E264" s="5"/>
       <c r="F264" s="5"/>
@@ -12788,7 +12863,93 @@
       <c r="L264" s="5"/>
       <c r="M264" s="5"/>
       <c r="N264" s="4" t="s">
-        <v>1134</v>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14">
+      <c r="A265" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="B265" s="5"/>
+      <c r="C265" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D265" s="5"/>
+      <c r="E265" s="5"/>
+      <c r="F265" s="5"/>
+      <c r="G265" s="5"/>
+      <c r="H265" s="5"/>
+      <c r="I265" s="5"/>
+      <c r="J265" s="5"/>
+      <c r="K265" s="5"/>
+      <c r="L265" s="5"/>
+      <c r="M265" s="5"/>
+      <c r="N265" s="4" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14">
+      <c r="A266" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="B266" s="5"/>
+      <c r="C266" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D266" s="5"/>
+      <c r="E266" s="5"/>
+      <c r="F266" s="5"/>
+      <c r="G266" s="5"/>
+      <c r="H266" s="5"/>
+      <c r="I266" s="5"/>
+      <c r="J266" s="5"/>
+      <c r="K266" s="5"/>
+      <c r="L266" s="5"/>
+      <c r="M266" s="5"/>
+      <c r="N266" s="4" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14">
+      <c r="A267" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="B267" s="5"/>
+      <c r="C267" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D267" s="5"/>
+      <c r="E267" s="5"/>
+      <c r="F267" s="5"/>
+      <c r="G267" s="5"/>
+      <c r="H267" s="5"/>
+      <c r="I267" s="5"/>
+      <c r="J267" s="5"/>
+      <c r="K267" s="5"/>
+      <c r="L267" s="5"/>
+      <c r="M267" s="5"/>
+      <c r="N267" s="4" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14">
+      <c r="A268" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="B268" s="5"/>
+      <c r="C268" s="5"/>
+      <c r="D268" s="5"/>
+      <c r="E268" s="5"/>
+      <c r="F268" s="5"/>
+      <c r="G268" s="5"/>
+      <c r="H268" s="5"/>
+      <c r="I268" s="5"/>
+      <c r="J268" s="5"/>
+      <c r="K268" s="5"/>
+      <c r="L268" s="5"/>
+      <c r="M268" s="5"/>
+      <c r="N268" s="4" t="s">
+        <v>1147</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/i18n/trans.xlsx
+++ b/src/utils/i18n/trans.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1155">
   <si>
     <t>Key</t>
   </si>
@@ -174,10 +174,10 @@
     <t>D:\xampp\htdocs\Vn4React\src\components\FieldForm\asset-file/Form.js: 203</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\components\FieldForm\image\GoogleDrive/MacOSFileManage.js: 565</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\components\FieldForm\image\GoogleDrive/MacOSFileManage.js: 586</t>
+    <t>D:\xampp\htdocs\Vn4React\src\components\FieldForm\image\GoogleDrive/MacOSFileManage.js: 571</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\components\FieldForm\image\GoogleDrive/MacOSFileManage.js: 592</t>
   </si>
   <si>
     <t>D:\xampp\htdocs\Vn4React\src\components\FieldForm\image/MultiChoose2 copy.js: 503</t>
@@ -210,10 +210,10 @@
     <t>D:\xampp\htdocs\Vn4React\src\components\FieldForm\asset-file/Form.js: 200</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\components\FieldForm\image\GoogleDrive/MacOSFileManage.js: 564</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\components\FieldForm\image\GoogleDrive/MacOSFileManage.js: 585</t>
+    <t>D:\xampp\htdocs\Vn4React\src\components\FieldForm\image\GoogleDrive/MacOSFileManage.js: 570</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\components\FieldForm\image\GoogleDrive/MacOSFileManage.js: 591</t>
   </si>
   <si>
     <t>D:\xampp\htdocs\Vn4React\src\components\FieldForm\image/MultiChoose2 copy.js: 500</t>
@@ -348,7 +348,7 @@
     <t>D:\xampp\htdocs\Vn4React\src\components\FieldForm\image\GoogleDrive/ListMenuMouseRightColumn.js: 11</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\components\FieldForm\image\GoogleDrive/MacOSFileManage.js: 583</t>
+    <t>D:\xampp\htdocs\Vn4React\src\components\FieldForm\image\GoogleDrive/MacOSFileManage.js: 589</t>
   </si>
   <si>
     <t>Paste</t>
@@ -399,7 +399,7 @@
     <t>D:\xampp\htdocs\Vn4React\src\components\FieldForm\image\GoogleDrive/ListMenuMouseRightFile.js: 72</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\components\FieldForm\image\GoogleDrive/MacOSFileManage.js: 562</t>
+    <t>D:\xampp\htdocs\Vn4React\src\components\FieldForm\image\GoogleDrive/MacOSFileManage.js: 568</t>
   </si>
   <si>
     <t>Change Color</t>
@@ -447,25 +447,25 @@
     <t>My File</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\components\FieldForm\image\GoogleDrive/MacOSFileManage.js: 458</t>
+    <t>D:\xampp\htdocs\Vn4React\src\components\FieldForm\image\GoogleDrive/MacOSFileManage.js: 464</t>
   </si>
   <si>
     <t>Search</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\components\FieldForm\image\GoogleDrive/MacOSFileManage.js: 514</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\page\PostType\components\ShowData\SearchBar\components/Search.js: 66</t>
+    <t>D:\xampp\htdocs\Vn4React\src\components\FieldForm\image\GoogleDrive/MacOSFileManage.js: 520</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\page\PostType\components\ShowData\SearchBar\components/Search.js: 67</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\components\FieldForm\image\GoogleDrive/MacOSFileManage.js: 571</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\components\FieldForm\image\GoogleDrive/MacOSFileManage.js: 592</t>
+    <t>D:\xampp\htdocs\Vn4React\src\components\FieldForm\image\GoogleDrive/MacOSFileManage.js: 577</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\components\FieldForm\image\GoogleDrive/MacOSFileManage.js: 598</t>
   </si>
   <si>
     <t>D:\xampp\htdocs\Vn4React\src\page\OnePage\Appearance\Menu/List.js: 152</t>
@@ -507,10 +507,10 @@
     <t>D:\xampp\htdocs\Vn4React\src\page\OnePage\Appearance\components/Widget.js: 228</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\page\OnePage/Localization.js: 239</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\page\OnePage\Settings/index.js: 319</t>
+    <t>D:\xampp\htdocs\Vn4React\src\page\OnePage/Localization.js: 301</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\page\OnePage\Settings/index.js: 323</t>
   </si>
   <si>
     <t>D:\xampp\htdocs\Vn4React\src\page\OnePage\User\Profile\components/BasicInformation.js: 122</t>
@@ -825,7 +825,7 @@
     <t>D:\xampp\htdocs\Vn4React\src\layout\Header/Search.js: 114</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\page\PostType\components\ShowData\SearchBar\components/Search.js: 57</t>
+    <t>D:\xampp\htdocs\Vn4React\src\page\PostType\components\ShowData\SearchBar\components/Search.js: 58</t>
   </si>
   <si>
     <t>Flush Cache</t>
@@ -1107,9 +1107,6 @@
     <t>D:\xampp\htdocs\Vn4React\src\page\OnePage\Appearance/Appearance.js: 56</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\page\OnePage/EntityRelationship.js: 245</t>
-  </si>
-  <si>
     <t>D:\xampp\htdocs\Vn4React\src\page\OnePage\Log/Log.js: 272</t>
   </si>
   <si>
@@ -1536,15 +1533,6 @@
     <t>D:\xampp\htdocs\Vn4React\src\page\OnePage/Dashboard.js: 23</t>
   </si>
   <si>
-    <t>Entity Relationship</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\page\OnePage/EntityRelationship.js: 243</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\page\OnePage/EntityRelationship.js: 246</t>
-  </si>
-  <si>
     <t>Error 403</t>
   </si>
   <si>
@@ -1599,37 +1587,43 @@
     <t>Localization</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\page\OnePage/Localization.js: 224</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\page\OnePage/Localization.js: 230</t>
+    <t>D:\xampp\htdocs\Vn4React\src\page\OnePage/Localization.js: 286</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\page\OnePage/Localization.js: 292</t>
   </si>
   <si>
     <t>Settings</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\page\OnePage/Localization.js: 228</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\page\OnePage\Settings/index.js: 304</t>
+    <t>D:\xampp\htdocs\Vn4React\src\page\OnePage/Localization.js: 290</t>
   </si>
   <si>
     <t>D:\xampp\htdocs\Vn4React\src\page\OnePage\Settings/index.js: 308</t>
   </si>
   <si>
-    <t>Double click on the text to edit</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\page\OnePage/Localization.js: 245</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\page\OnePage/Localization.js: 253</t>
+    <t>D:\xampp\htdocs\Vn4React\src\page\OnePage\Settings/index.js: 312</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\page\OnePage/Localization.js: 309</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\page\OnePage/Localization.js: 327</t>
+  </si>
+  <si>
+    <t>Un-translated</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\page\OnePage/Localization.js: 359</t>
   </si>
   <si>
     <t>Rows per page:</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\page\OnePage/Localization.js: 355</t>
+    <t>D:\xampp\htdocs\Vn4React\src\page\OnePage/Localization.js: 467</t>
   </si>
   <si>
     <t>D:\xampp\htdocs\Vn4React\src\page\OnePage\Log/Log.js: 458</t>
@@ -1641,7 +1635,7 @@
     <t>of</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\page\OnePage/Localization.js: 356</t>
+    <t>D:\xampp\htdocs\Vn4React\src\page\OnePage/Localization.js: 468</t>
   </si>
   <si>
     <t>D:\xampp\htdocs\Vn4React\src\page\OnePage\Log/Log.js: 459</t>
@@ -1851,7 +1845,7 @@
     <t>Change settings that affect the entire website</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\page\OnePage\Settings/index.js: 312</t>
+    <t>D:\xampp\htdocs\Vn4React\src\page\OnePage\Settings/index.js: 316</t>
   </si>
   <si>
     <t>Cache</t>
@@ -2982,12 +2976,12 @@
     <t>Chỉnh sửa menu</t>
   </si>
   <si>
+    <t>Nhật ký thay đổi</t>
+  </si>
+  <si>
     <t>Hỗ trợ</t>
   </si>
   <si>
-    <t>Nhật ký thay đổi</t>
-  </si>
-  <si>
     <t>家</t>
   </si>
   <si>
@@ -3012,12 +3006,6 @@
     <t>Bảng điều khiển</t>
   </si>
   <si>
-    <t>实体关系</t>
-  </si>
-  <si>
-    <t>Thực thể quan hệ</t>
-  </si>
-  <si>
     <t>Lỗi 403</t>
   </si>
   <si>
@@ -3057,10 +3045,13 @@
     <t>Cài đặt</t>
   </si>
   <si>
-    <t>Nhấp đúp vào văn bản để chỉnh sửa 2222</t>
+    <t>Nhóm</t>
   </si>
   <si>
     <t>Khóa</t>
+  </si>
+  <si>
+    <t>Chưa được dịch</t>
   </si>
   <si>
     <t>每页行数：</t>
@@ -3873,10 +3864,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C509"/>
+  <dimension ref="A1:C507"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A507" sqref="A507:B509"/>
+      <selection activeCell="A505" sqref="A505:B507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5710,15 +5701,15 @@
       </c>
     </row>
     <row r="270" spans="1:3">
-      <c r="A270" s="2"/>
+      <c r="A270" s="2" t="s">
+        <v>366</v>
+      </c>
       <c r="B270" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="271" spans="1:3">
-      <c r="A271" s="2" t="s">
-        <v>367</v>
-      </c>
+      <c r="A271" s="2"/>
       <c r="B271" t="s">
         <v>368</v>
       </c>
@@ -5742,15 +5733,15 @@
       </c>
     </row>
     <row r="275" spans="1:3">
-      <c r="A275" s="2"/>
+      <c r="A275" s="2" t="s">
+        <v>372</v>
+      </c>
       <c r="B275" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="276" spans="1:3">
-      <c r="A276" s="2" t="s">
-        <v>373</v>
-      </c>
+      <c r="A276" s="2"/>
       <c r="B276" t="s">
         <v>374</v>
       </c>
@@ -5786,29 +5777,29 @@
       </c>
     </row>
     <row r="282" spans="1:3">
-      <c r="A282" s="2"/>
+      <c r="A282" s="2" t="s">
+        <v>380</v>
+      </c>
       <c r="B282" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="283" spans="1:3">
-      <c r="A283" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="A283" s="2"/>
       <c r="B283" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="284" spans="1:3">
-      <c r="A284" s="2"/>
+      <c r="A284" s="2" t="s">
+        <v>383</v>
+      </c>
       <c r="B284" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="285" spans="1:3">
-      <c r="A285" s="2" t="s">
-        <v>384</v>
-      </c>
+      <c r="A285" s="2"/>
       <c r="B285" t="s">
         <v>385</v>
       </c>
@@ -5822,13 +5813,13 @@
     <row r="287" spans="1:3">
       <c r="A287" s="2"/>
       <c r="B287" t="s">
-        <v>387</v>
+        <v>160</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="2"/>
       <c r="B288" t="s">
-        <v>160</v>
+        <v>387</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5850,15 +5841,15 @@
       </c>
     </row>
     <row r="292" spans="1:3">
-      <c r="A292" s="2"/>
+      <c r="A292" s="2" t="s">
+        <v>391</v>
+      </c>
       <c r="B292" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="293" spans="1:3">
-      <c r="A293" s="2" t="s">
-        <v>392</v>
-      </c>
+      <c r="A293" s="2"/>
       <c r="B293" t="s">
         <v>393</v>
       </c>
@@ -5900,57 +5891,57 @@
       </c>
     </row>
     <row r="300" spans="1:3">
-      <c r="A300" s="2"/>
+      <c r="A300" s="2" t="s">
+        <v>400</v>
+      </c>
       <c r="B300" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="301" spans="1:3">
-      <c r="A301" s="2" t="s">
-        <v>401</v>
-      </c>
+      <c r="A301" s="2"/>
       <c r="B301" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="302" spans="1:3">
-      <c r="A302" s="2"/>
+      <c r="A302" s="2" t="s">
+        <v>403</v>
+      </c>
       <c r="B302" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="303" spans="1:3">
-      <c r="A303" s="2" t="s">
-        <v>404</v>
-      </c>
+      <c r="A303" s="2"/>
       <c r="B303" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="304" spans="1:3">
-      <c r="A304" s="2"/>
+      <c r="A304" s="2" t="s">
+        <v>406</v>
+      </c>
       <c r="B304" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="305" spans="1:3">
-      <c r="A305" s="2" t="s">
-        <v>407</v>
-      </c>
+      <c r="A305" s="2"/>
       <c r="B305" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="306" spans="1:3">
-      <c r="A306" s="2"/>
+      <c r="A306" s="2" t="s">
+        <v>409</v>
+      </c>
       <c r="B306" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="307" spans="1:3">
-      <c r="A307" s="2" t="s">
-        <v>410</v>
-      </c>
+      <c r="A307" s="2"/>
       <c r="B307" t="s">
         <v>411</v>
       </c>
@@ -5974,15 +5965,15 @@
       </c>
     </row>
     <row r="311" spans="1:3">
-      <c r="A311" s="2"/>
+      <c r="A311" s="2" t="s">
+        <v>415</v>
+      </c>
       <c r="B311" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="312" spans="1:3">
-      <c r="A312" s="2" t="s">
-        <v>416</v>
-      </c>
+      <c r="A312" s="2"/>
       <c r="B312" t="s">
         <v>417</v>
       </c>
@@ -5994,267 +5985,267 @@
       </c>
     </row>
     <row r="314" spans="1:3">
-      <c r="A314" s="2"/>
+      <c r="A314" s="2" t="s">
+        <v>419</v>
+      </c>
       <c r="B314" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="315" spans="1:3">
-      <c r="A315" s="2" t="s">
-        <v>420</v>
-      </c>
+      <c r="A315" s="2"/>
       <c r="B315" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="316" spans="1:3">
-      <c r="A316" s="2"/>
+      <c r="A316" s="2" t="s">
+        <v>422</v>
+      </c>
       <c r="B316" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="317" spans="1:3">
-      <c r="A317" s="2" t="s">
-        <v>423</v>
-      </c>
+      <c r="A317" s="2"/>
       <c r="B317" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="318" spans="1:3">
-      <c r="A318" s="2"/>
+      <c r="A318" s="2" t="s">
+        <v>425</v>
+      </c>
       <c r="B318" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="319" spans="1:3">
-      <c r="A319" s="2" t="s">
-        <v>426</v>
-      </c>
+      <c r="A319" s="2"/>
       <c r="B319" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="320" spans="1:3">
-      <c r="A320" s="2"/>
+      <c r="A320" s="2" t="s">
+        <v>428</v>
+      </c>
       <c r="B320" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="321" spans="1:3">
-      <c r="A321" s="2" t="s">
-        <v>429</v>
-      </c>
+      <c r="A321" s="2"/>
       <c r="B321" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="322" spans="1:3">
-      <c r="A322" s="2"/>
+      <c r="A322" s="2" t="s">
+        <v>431</v>
+      </c>
       <c r="B322" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="323" spans="1:3">
-      <c r="A323" s="2" t="s">
-        <v>432</v>
-      </c>
+      <c r="A323" s="2"/>
       <c r="B323" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="324" spans="1:3">
-      <c r="A324" s="2"/>
+      <c r="A324" s="2" t="s">
+        <v>434</v>
+      </c>
       <c r="B324" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="325" spans="1:3">
-      <c r="A325" s="2" t="s">
-        <v>435</v>
-      </c>
+      <c r="A325" s="2"/>
       <c r="B325" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="326" spans="1:3">
-      <c r="A326" s="2"/>
+      <c r="A326" s="2" t="s">
+        <v>437</v>
+      </c>
       <c r="B326" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="327" spans="1:3">
-      <c r="A327" s="2" t="s">
-        <v>438</v>
-      </c>
+      <c r="A327" s="2"/>
       <c r="B327" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="328" spans="1:3">
-      <c r="A328" s="2"/>
+      <c r="A328" s="2" t="s">
+        <v>440</v>
+      </c>
       <c r="B328" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="329" spans="1:3">
-      <c r="A329" s="2" t="s">
-        <v>441</v>
-      </c>
+      <c r="A329" s="2"/>
       <c r="B329" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="330" spans="1:3">
-      <c r="A330" s="2"/>
+      <c r="A330" s="2" t="s">
+        <v>443</v>
+      </c>
       <c r="B330" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="331" spans="1:3">
-      <c r="A331" s="2" t="s">
-        <v>444</v>
-      </c>
+      <c r="A331" s="2"/>
       <c r="B331" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="332" spans="1:3">
-      <c r="A332" s="2"/>
+      <c r="A332" s="2" t="s">
+        <v>446</v>
+      </c>
       <c r="B332" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="333" spans="1:3">
-      <c r="A333" s="2" t="s">
-        <v>447</v>
-      </c>
+      <c r="A333" s="2"/>
       <c r="B333" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="334" spans="1:3">
-      <c r="A334" s="2"/>
+      <c r="A334" s="2" t="s">
+        <v>449</v>
+      </c>
       <c r="B334" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="335" spans="1:3">
-      <c r="A335" s="2" t="s">
-        <v>450</v>
-      </c>
+      <c r="A335" s="2"/>
       <c r="B335" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="336" spans="1:3">
-      <c r="A336" s="2"/>
+      <c r="A336" s="2" t="s">
+        <v>452</v>
+      </c>
       <c r="B336" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="337" spans="1:3">
-      <c r="A337" s="2" t="s">
-        <v>453</v>
-      </c>
+      <c r="A337" s="2"/>
       <c r="B337" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="338" spans="1:3">
-      <c r="A338" s="2"/>
+      <c r="A338" s="2" t="s">
+        <v>455</v>
+      </c>
       <c r="B338" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="339" spans="1:3">
-      <c r="A339" s="2" t="s">
-        <v>456</v>
-      </c>
+      <c r="A339" s="2"/>
       <c r="B339" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="340" spans="1:3">
-      <c r="A340" s="2"/>
+      <c r="A340" s="2" t="s">
+        <v>458</v>
+      </c>
       <c r="B340" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="341" spans="1:3">
-      <c r="A341" s="2" t="s">
-        <v>459</v>
-      </c>
+      <c r="A341" s="2"/>
       <c r="B341" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="342" spans="1:3">
-      <c r="A342" s="2"/>
+      <c r="A342" s="2" t="s">
+        <v>461</v>
+      </c>
       <c r="B342" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="343" spans="1:3">
-      <c r="A343" s="2" t="s">
-        <v>462</v>
-      </c>
+      <c r="A343" s="2"/>
       <c r="B343" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="344" spans="1:3">
-      <c r="A344" s="2"/>
+      <c r="A344" s="2" t="s">
+        <v>464</v>
+      </c>
       <c r="B344" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="345" spans="1:3">
-      <c r="A345" s="2" t="s">
-        <v>465</v>
-      </c>
+      <c r="A345" s="2"/>
       <c r="B345" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="346" spans="1:3">
-      <c r="A346" s="2"/>
+      <c r="A346" s="2" t="s">
+        <v>467</v>
+      </c>
       <c r="B346" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="347" spans="1:3">
-      <c r="A347" s="2" t="s">
-        <v>468</v>
-      </c>
+      <c r="A347" s="2"/>
       <c r="B347" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="348" spans="1:3">
-      <c r="A348" s="2"/>
+      <c r="A348" s="2" t="s">
+        <v>470</v>
+      </c>
       <c r="B348" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="349" spans="1:3">
-      <c r="A349" s="2" t="s">
-        <v>471</v>
-      </c>
+      <c r="A349" s="2"/>
       <c r="B349" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="350" spans="1:3">
-      <c r="A350" s="2"/>
+      <c r="A350" s="2" t="s">
+        <v>473</v>
+      </c>
       <c r="B350" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="351" spans="1:3">
-      <c r="A351" s="2" t="s">
-        <v>474</v>
-      </c>
+      <c r="A351" s="2"/>
       <c r="B351" t="s">
         <v>475</v>
       </c>
@@ -6266,43 +6257,43 @@
       </c>
     </row>
     <row r="353" spans="1:3">
-      <c r="A353" s="2"/>
+      <c r="A353" s="2" t="s">
+        <v>477</v>
+      </c>
       <c r="B353" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="354" spans="1:3">
-      <c r="A354" s="2" t="s">
-        <v>478</v>
-      </c>
+      <c r="A354" s="2"/>
       <c r="B354" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="355" spans="1:3">
-      <c r="A355" s="2"/>
+      <c r="A355" s="2" t="s">
+        <v>480</v>
+      </c>
       <c r="B355" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="356" spans="1:3">
-      <c r="A356" s="2" t="s">
-        <v>481</v>
-      </c>
+      <c r="A356" s="2"/>
       <c r="B356" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="357" spans="1:3">
-      <c r="A357" s="2"/>
+      <c r="A357" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="B357" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="358" spans="1:3">
-      <c r="A358" s="2" t="s">
-        <v>484</v>
-      </c>
+      <c r="A358" s="2"/>
       <c r="B358" t="s">
         <v>485</v>
       </c>
@@ -6314,15 +6305,15 @@
       </c>
     </row>
     <row r="360" spans="1:3">
-      <c r="A360" s="2"/>
+      <c r="A360" s="2" t="s">
+        <v>487</v>
+      </c>
       <c r="B360" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="361" spans="1:3">
-      <c r="A361" s="2" t="s">
-        <v>488</v>
-      </c>
+      <c r="A361" s="2"/>
       <c r="B361" t="s">
         <v>485</v>
       </c>
@@ -6334,173 +6325,173 @@
       </c>
     </row>
     <row r="363" spans="1:3">
-      <c r="A363" s="2"/>
+      <c r="A363" s="2" t="s">
+        <v>488</v>
+      </c>
       <c r="B363" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B364" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B365" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="366" spans="1:3">
-      <c r="A366" s="2" t="s">
-        <v>493</v>
-      </c>
+      <c r="A366" s="2"/>
       <c r="B366" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="367" spans="1:3">
-      <c r="A367" s="2"/>
+      <c r="A367" s="2" t="s">
+        <v>495</v>
+      </c>
       <c r="B367" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B368" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B369" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B370" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B371" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B372" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B373" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="2"/>
       <c r="B374" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B375" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B376" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="377" spans="1:3">
-      <c r="A377" s="2"/>
+      <c r="A377" s="2" t="s">
+        <v>514</v>
+      </c>
       <c r="B377" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B378" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="379" spans="1:3">
-      <c r="A379" s="2" t="s">
-        <v>516</v>
-      </c>
+      <c r="A379" s="2"/>
       <c r="B379" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B380" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="381" spans="1:3">
-      <c r="A381" s="2" t="s">
-        <v>520</v>
-      </c>
+      <c r="A381" s="2"/>
       <c r="B381" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="382" spans="1:3">
-      <c r="A382" s="2"/>
+      <c r="A382" s="2" t="s">
+        <v>522</v>
+      </c>
       <c r="B382" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="383" spans="1:3">
-      <c r="A383" s="2" t="s">
-        <v>523</v>
-      </c>
+      <c r="A383" s="2"/>
       <c r="B383" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="384" spans="1:3">
-      <c r="A384" s="2"/>
+      <c r="A384" s="2" t="s">
+        <v>525</v>
+      </c>
       <c r="B384" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="385" spans="1:3">
-      <c r="A385" s="2" t="s">
-        <v>526</v>
-      </c>
+      <c r="A385" s="2"/>
       <c r="B385" t="s">
         <v>527</v>
       </c>
@@ -6520,57 +6511,57 @@
       </c>
     </row>
     <row r="388" spans="1:3">
-      <c r="A388" s="2"/>
+      <c r="A388" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="B388" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="389" spans="1:3">
-      <c r="A389" s="2"/>
+      <c r="A389" s="2" t="s">
+        <v>532</v>
+      </c>
       <c r="B389" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B390" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="391" spans="1:3">
-      <c r="A391" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A391" s="2"/>
       <c r="B391" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="392" spans="1:3">
-      <c r="A392" s="2" t="s">
-        <v>536</v>
-      </c>
+      <c r="A392" s="2"/>
       <c r="B392" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="393" spans="1:3">
-      <c r="A393" s="2"/>
+      <c r="A393" s="2" t="s">
+        <v>538</v>
+      </c>
       <c r="B393" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="2"/>
       <c r="B394" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="395" spans="1:3">
-      <c r="A395" s="2" t="s">
-        <v>540</v>
-      </c>
+      <c r="A395" s="2"/>
       <c r="B395" t="s">
         <v>541</v>
       </c>
@@ -6582,21 +6573,21 @@
       </c>
     </row>
     <row r="397" spans="1:3">
-      <c r="A397" s="2"/>
+      <c r="A397" s="2" t="s">
+        <v>543</v>
+      </c>
       <c r="B397" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="2"/>
       <c r="B398" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="399" spans="1:3">
-      <c r="A399" s="2" t="s">
-        <v>545</v>
-      </c>
+      <c r="A399" s="2"/>
       <c r="B399" t="s">
         <v>541</v>
       </c>
@@ -6608,171 +6599,171 @@
       </c>
     </row>
     <row r="401" spans="1:3">
-      <c r="A401" s="2"/>
+      <c r="A401" s="2" t="s">
+        <v>544</v>
+      </c>
       <c r="B401" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="402" spans="1:3">
-      <c r="A402" s="2"/>
+      <c r="A402" s="2" t="s">
+        <v>546</v>
+      </c>
       <c r="B402" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="2" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B403" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B404" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B405" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B406" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="2" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B407" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B408" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="2" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B409" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="2" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B410" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="2" t="s">
-        <v>562</v>
+        <v>1</v>
       </c>
       <c r="B411" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="412" spans="1:3">
-      <c r="A412" s="2" t="s">
-        <v>564</v>
-      </c>
+      <c r="A412" s="2"/>
       <c r="B412" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="2" t="s">
-        <v>1</v>
+        <v>566</v>
       </c>
       <c r="B413" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="2"/>
       <c r="B414" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B415" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="2"/>
       <c r="B416" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B417" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="2"/>
       <c r="B418" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B419" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="2"/>
       <c r="B420" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B421" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="2"/>
       <c r="B422" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="423" spans="1:3">
-      <c r="A423" s="2" t="s">
-        <v>580</v>
-      </c>
+      <c r="A423" s="2"/>
       <c r="B423" t="s">
         <v>581</v>
       </c>
@@ -6784,383 +6775,383 @@
       </c>
     </row>
     <row r="425" spans="1:3">
-      <c r="A425" s="2"/>
+      <c r="A425" s="2" t="s">
+        <v>583</v>
+      </c>
       <c r="B425" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="2"/>
       <c r="B426" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B427" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="428" spans="1:3">
-      <c r="A428" s="2"/>
+      <c r="A428" s="2" t="s">
+        <v>588</v>
+      </c>
       <c r="B428" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="429" spans="1:3">
-      <c r="A429" s="2" t="s">
-        <v>588</v>
-      </c>
+      <c r="A429" s="2"/>
       <c r="B429" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B430" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="431" spans="1:3">
-      <c r="A431" s="2"/>
+      <c r="A431" s="2" t="s">
+        <v>593</v>
+      </c>
       <c r="B431" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="2" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B432" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="2" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B433" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="434" spans="1:3">
-      <c r="A434" s="2" t="s">
-        <v>597</v>
-      </c>
+      <c r="A434" s="2"/>
       <c r="B434" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B435" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="436" spans="1:3">
-      <c r="A436" s="2"/>
+      <c r="A436" s="2" t="s">
+        <v>602</v>
+      </c>
       <c r="B436" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B437" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="2" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B438" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="2" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B439" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="2" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B440" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="2" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B441" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B442" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="2" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B443" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="444" spans="1:3">
-      <c r="A444" s="2" t="s">
-        <v>616</v>
-      </c>
+      <c r="A444" s="2"/>
       <c r="B444" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B445" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="446" spans="1:3">
-      <c r="A446" s="2"/>
+      <c r="A446" s="2" t="s">
+        <v>621</v>
+      </c>
       <c r="B446" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="447" spans="1:3">
-      <c r="A447" s="2" t="s">
-        <v>621</v>
-      </c>
+      <c r="A447" s="2"/>
       <c r="B447" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="448" spans="1:3">
-      <c r="A448" s="2" t="s">
-        <v>623</v>
-      </c>
+      <c r="A448" s="2"/>
       <c r="B448" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="449" spans="1:3">
-      <c r="A449" s="2"/>
+      <c r="A449" s="2" t="s">
+        <v>625</v>
+      </c>
       <c r="B449" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="450" spans="1:3">
-      <c r="A450" s="2"/>
+      <c r="A450" s="2" t="s">
+        <v>627</v>
+      </c>
       <c r="B450" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="2" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B451" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="2" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B452" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B453" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B454" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B455" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B456" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B457" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="2" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B458" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="2" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B459" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="2" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B460" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" s="2" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B461" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="2" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B462" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B463" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" s="2" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B464" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B465" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="2" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B466" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="2" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B467" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B468" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B469" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="470" spans="1:3">
-      <c r="A470" s="2" t="s">
-        <v>665</v>
-      </c>
+      <c r="A470" s="2"/>
       <c r="B470" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B471" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="472" spans="1:3">
-      <c r="A472" s="2"/>
+      <c r="A472" s="2" t="s">
+        <v>670</v>
+      </c>
       <c r="B472" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="473" spans="1:3">
-      <c r="A473" s="2" t="s">
-        <v>670</v>
-      </c>
+      <c r="A473" s="2"/>
       <c r="B473" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="474" spans="1:3">
-      <c r="A474" s="2" t="s">
-        <v>672</v>
-      </c>
+      <c r="A474" s="2"/>
       <c r="B474" t="s">
         <v>673</v>
       </c>
@@ -7172,257 +7163,245 @@
       </c>
     </row>
     <row r="476" spans="1:3">
-      <c r="A476" s="2"/>
+      <c r="A476" s="2" t="s">
+        <v>675</v>
+      </c>
       <c r="B476" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="477" spans="1:3">
-      <c r="A477" s="2"/>
+      <c r="A477" s="2" t="s">
+        <v>677</v>
+      </c>
       <c r="B477" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="2" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B478" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479" s="2" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B479" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="480" spans="1:3">
-      <c r="A480" s="2" t="s">
-        <v>681</v>
-      </c>
+      <c r="A480" s="2"/>
       <c r="B480" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B481" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482" s="2"/>
       <c r="B482" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B483" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484" s="2"/>
       <c r="B484" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B485" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="486" spans="1:3">
-      <c r="A486" s="2"/>
+      <c r="A486" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="B486" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B487" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="A488" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B488" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="A489" s="2" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B489" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="A490" s="2" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B490" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="491" spans="1:3">
-      <c r="A491" s="2" t="s">
-        <v>699</v>
-      </c>
+      <c r="A491" s="2"/>
       <c r="B491" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="492" spans="1:3">
       <c r="A492" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B492" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="493" spans="1:3">
-      <c r="A493" s="2"/>
+      <c r="A493" s="2" t="s">
+        <v>704</v>
+      </c>
       <c r="B493" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="494" spans="1:3">
       <c r="A494" s="2" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B494" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="495" spans="1:3">
-      <c r="A495" s="2" t="s">
-        <v>706</v>
-      </c>
+      <c r="A495" s="2"/>
       <c r="B495" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B496" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="497" spans="1:3">
-      <c r="A497" s="2"/>
+      <c r="A497" s="2" t="s">
+        <v>711</v>
+      </c>
       <c r="B497" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" s="2" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B498" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="A499" s="2" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B499" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500" s="2" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B500" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501" s="2" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B501" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502" s="2" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B502" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503" s="2" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B503" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="A504" s="2" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B504" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="A505" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B505" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="506" spans="1:3">
-      <c r="A506" s="2" t="s">
-        <v>727</v>
-      </c>
+      <c r="A506" s="2"/>
       <c r="B506" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="507" spans="1:3">
-      <c r="A507" s="2" t="s">
-        <v>729</v>
-      </c>
+      <c r="A507" s="2"/>
       <c r="B507" t="s">
         <v>730</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3">
-      <c r="A508" s="2"/>
-      <c r="B508" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="509" spans="1:3">
-      <c r="A509" s="2"/>
-      <c r="B509" t="s">
-        <v>732</v>
       </c>
     </row>
   </sheetData>
@@ -7530,43 +7509,44 @@
     <mergeCell ref="A250:A257"/>
     <mergeCell ref="A258:A262"/>
     <mergeCell ref="A263:A265"/>
-    <mergeCell ref="A266:A270"/>
-    <mergeCell ref="A271:A275"/>
-    <mergeCell ref="A276:A282"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="A285:A292"/>
-    <mergeCell ref="A293:A300"/>
-    <mergeCell ref="A301:A302"/>
-    <mergeCell ref="A303:A304"/>
-    <mergeCell ref="A305:A306"/>
-    <mergeCell ref="A307:A311"/>
-    <mergeCell ref="A312:A314"/>
-    <mergeCell ref="A315:A316"/>
-    <mergeCell ref="A317:A318"/>
-    <mergeCell ref="A319:A320"/>
-    <mergeCell ref="A321:A322"/>
-    <mergeCell ref="A323:A324"/>
-    <mergeCell ref="A325:A326"/>
-    <mergeCell ref="A327:A328"/>
-    <mergeCell ref="A329:A330"/>
-    <mergeCell ref="A331:A332"/>
-    <mergeCell ref="A333:A334"/>
-    <mergeCell ref="A335:A336"/>
-    <mergeCell ref="A337:A338"/>
-    <mergeCell ref="A339:A340"/>
-    <mergeCell ref="A341:A342"/>
-    <mergeCell ref="A343:A344"/>
-    <mergeCell ref="A345:A346"/>
-    <mergeCell ref="A347:A348"/>
-    <mergeCell ref="A349:A350"/>
-    <mergeCell ref="A351:A353"/>
-    <mergeCell ref="A354:A355"/>
-    <mergeCell ref="A356:A357"/>
-    <mergeCell ref="A358:A360"/>
-    <mergeCell ref="A361:A363"/>
+    <mergeCell ref="A266:A269"/>
+    <mergeCell ref="A270:A274"/>
+    <mergeCell ref="A275:A281"/>
+    <mergeCell ref="A282:A283"/>
+    <mergeCell ref="A284:A291"/>
+    <mergeCell ref="A292:A299"/>
+    <mergeCell ref="A300:A301"/>
+    <mergeCell ref="A302:A303"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="A306:A310"/>
+    <mergeCell ref="A311:A313"/>
+    <mergeCell ref="A314:A315"/>
+    <mergeCell ref="A316:A317"/>
+    <mergeCell ref="A318:A319"/>
+    <mergeCell ref="A320:A321"/>
+    <mergeCell ref="A322:A323"/>
+    <mergeCell ref="A324:A325"/>
+    <mergeCell ref="A326:A327"/>
+    <mergeCell ref="A328:A329"/>
+    <mergeCell ref="A330:A331"/>
+    <mergeCell ref="A332:A333"/>
+    <mergeCell ref="A334:A335"/>
+    <mergeCell ref="A336:A337"/>
+    <mergeCell ref="A338:A339"/>
+    <mergeCell ref="A340:A341"/>
+    <mergeCell ref="A342:A343"/>
+    <mergeCell ref="A344:A345"/>
+    <mergeCell ref="A346:A347"/>
+    <mergeCell ref="A348:A349"/>
+    <mergeCell ref="A350:A352"/>
+    <mergeCell ref="A353:A354"/>
+    <mergeCell ref="A355:A356"/>
+    <mergeCell ref="A357:A359"/>
+    <mergeCell ref="A360:A362"/>
+    <mergeCell ref="A363:A363"/>
     <mergeCell ref="A364:A364"/>
-    <mergeCell ref="A365:A365"/>
-    <mergeCell ref="A366:A367"/>
+    <mergeCell ref="A365:A366"/>
+    <mergeCell ref="A367:A367"/>
     <mergeCell ref="A368:A368"/>
     <mergeCell ref="A369:A369"/>
     <mergeCell ref="A370:A370"/>
@@ -7574,19 +7554,20 @@
     <mergeCell ref="A372:A372"/>
     <mergeCell ref="A373:A374"/>
     <mergeCell ref="A375:A375"/>
-    <mergeCell ref="A376:A377"/>
-    <mergeCell ref="A378:A378"/>
-    <mergeCell ref="A379:A379"/>
-    <mergeCell ref="A380:A380"/>
-    <mergeCell ref="A381:A382"/>
-    <mergeCell ref="A383:A384"/>
-    <mergeCell ref="A385:A386"/>
-    <mergeCell ref="A387:A389"/>
-    <mergeCell ref="A390:A390"/>
-    <mergeCell ref="A391:A391"/>
-    <mergeCell ref="A392:A394"/>
-    <mergeCell ref="A395:A398"/>
-    <mergeCell ref="A399:A402"/>
+    <mergeCell ref="A376:A376"/>
+    <mergeCell ref="A377:A377"/>
+    <mergeCell ref="A378:A379"/>
+    <mergeCell ref="A380:A381"/>
+    <mergeCell ref="A382:A383"/>
+    <mergeCell ref="A384:A386"/>
+    <mergeCell ref="A387:A387"/>
+    <mergeCell ref="A388:A388"/>
+    <mergeCell ref="A389:A389"/>
+    <mergeCell ref="A390:A392"/>
+    <mergeCell ref="A393:A396"/>
+    <mergeCell ref="A397:A400"/>
+    <mergeCell ref="A401:A401"/>
+    <mergeCell ref="A402:A402"/>
     <mergeCell ref="A403:A403"/>
     <mergeCell ref="A404:A404"/>
     <mergeCell ref="A405:A405"/>
@@ -7595,32 +7576,32 @@
     <mergeCell ref="A408:A408"/>
     <mergeCell ref="A409:A409"/>
     <mergeCell ref="A410:A410"/>
-    <mergeCell ref="A411:A411"/>
-    <mergeCell ref="A412:A412"/>
+    <mergeCell ref="A411:A412"/>
     <mergeCell ref="A413:A414"/>
     <mergeCell ref="A415:A416"/>
     <mergeCell ref="A417:A418"/>
     <mergeCell ref="A419:A420"/>
-    <mergeCell ref="A421:A422"/>
-    <mergeCell ref="A423:A426"/>
-    <mergeCell ref="A427:A428"/>
-    <mergeCell ref="A429:A429"/>
-    <mergeCell ref="A430:A431"/>
+    <mergeCell ref="A421:A424"/>
+    <mergeCell ref="A425:A426"/>
+    <mergeCell ref="A427:A427"/>
+    <mergeCell ref="A428:A429"/>
+    <mergeCell ref="A430:A430"/>
+    <mergeCell ref="A431:A431"/>
     <mergeCell ref="A432:A432"/>
-    <mergeCell ref="A433:A433"/>
-    <mergeCell ref="A434:A434"/>
-    <mergeCell ref="A435:A436"/>
+    <mergeCell ref="A433:A434"/>
+    <mergeCell ref="A435:A435"/>
+    <mergeCell ref="A436:A436"/>
     <mergeCell ref="A437:A437"/>
     <mergeCell ref="A438:A438"/>
     <mergeCell ref="A439:A439"/>
     <mergeCell ref="A440:A440"/>
     <mergeCell ref="A441:A441"/>
     <mergeCell ref="A442:A442"/>
-    <mergeCell ref="A443:A443"/>
-    <mergeCell ref="A444:A444"/>
-    <mergeCell ref="A445:A446"/>
-    <mergeCell ref="A447:A447"/>
-    <mergeCell ref="A448:A450"/>
+    <mergeCell ref="A443:A444"/>
+    <mergeCell ref="A445:A445"/>
+    <mergeCell ref="A446:A448"/>
+    <mergeCell ref="A449:A449"/>
+    <mergeCell ref="A450:A450"/>
     <mergeCell ref="A451:A451"/>
     <mergeCell ref="A452:A452"/>
     <mergeCell ref="A453:A453"/>
@@ -7639,26 +7620,26 @@
     <mergeCell ref="A466:A466"/>
     <mergeCell ref="A467:A467"/>
     <mergeCell ref="A468:A468"/>
-    <mergeCell ref="A469:A469"/>
-    <mergeCell ref="A470:A470"/>
-    <mergeCell ref="A471:A472"/>
-    <mergeCell ref="A473:A473"/>
-    <mergeCell ref="A474:A477"/>
+    <mergeCell ref="A469:A470"/>
+    <mergeCell ref="A471:A471"/>
+    <mergeCell ref="A472:A475"/>
+    <mergeCell ref="A476:A476"/>
+    <mergeCell ref="A477:A477"/>
     <mergeCell ref="A478:A478"/>
-    <mergeCell ref="A479:A479"/>
-    <mergeCell ref="A480:A480"/>
+    <mergeCell ref="A479:A480"/>
     <mergeCell ref="A481:A482"/>
     <mergeCell ref="A483:A484"/>
-    <mergeCell ref="A485:A486"/>
+    <mergeCell ref="A485:A485"/>
+    <mergeCell ref="A486:A486"/>
     <mergeCell ref="A487:A487"/>
     <mergeCell ref="A488:A488"/>
     <mergeCell ref="A489:A489"/>
-    <mergeCell ref="A490:A490"/>
-    <mergeCell ref="A491:A491"/>
-    <mergeCell ref="A492:A493"/>
-    <mergeCell ref="A494:A494"/>
-    <mergeCell ref="A495:A495"/>
-    <mergeCell ref="A496:A497"/>
+    <mergeCell ref="A490:A491"/>
+    <mergeCell ref="A492:A492"/>
+    <mergeCell ref="A493:A493"/>
+    <mergeCell ref="A494:A495"/>
+    <mergeCell ref="A496:A496"/>
+    <mergeCell ref="A497:A497"/>
     <mergeCell ref="A498:A498"/>
     <mergeCell ref="A499:A499"/>
     <mergeCell ref="A500:A500"/>
@@ -7666,9 +7647,7 @@
     <mergeCell ref="A502:A502"/>
     <mergeCell ref="A503:A503"/>
     <mergeCell ref="A504:A504"/>
-    <mergeCell ref="A505:A505"/>
-    <mergeCell ref="A506:A506"/>
-    <mergeCell ref="A507:A509"/>
+    <mergeCell ref="A505:A507"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7721,43 +7700,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>743</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -7766,7 +7745,7 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="4" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -7779,7 +7758,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="4" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -7799,7 +7778,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="4" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -7808,7 +7787,7 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -7821,7 +7800,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -7841,7 +7820,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -7850,7 +7829,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -7863,7 +7842,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -7872,7 +7851,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -7885,7 +7864,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -7894,7 +7873,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -7907,7 +7886,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -7916,7 +7895,7 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="4" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -7929,7 +7908,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="4" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -7938,7 +7917,7 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="4" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -7951,7 +7930,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="4" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -7960,7 +7939,7 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="4" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -7973,7 +7952,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="4" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -7982,7 +7961,7 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="4" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -7995,7 +7974,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -8004,7 +7983,7 @@
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="4" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -8017,7 +7996,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="4" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -8037,7 +8016,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="4" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -8057,7 +8036,7 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -8077,7 +8056,7 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="4" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -8097,7 +8076,7 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="4" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -8117,7 +8096,7 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="4" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -8137,7 +8116,7 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="4" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -8146,7 +8125,7 @@
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="4" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -8159,7 +8138,7 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="4" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -8168,7 +8147,7 @@
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="4" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -8181,7 +8160,7 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="4" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -8190,7 +8169,7 @@
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="4" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -8203,7 +8182,7 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="4" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -8212,7 +8191,7 @@
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="4" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -8225,7 +8204,7 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="4" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -8234,7 +8213,7 @@
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -8247,7 +8226,7 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="4" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -8256,7 +8235,7 @@
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="4" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -8269,7 +8248,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="4" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -8278,7 +8257,7 @@
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="4" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -8291,7 +8270,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -8300,7 +8279,7 @@
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -8313,7 +8292,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="4" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -8322,7 +8301,7 @@
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="4" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -8335,7 +8314,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="4" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -8344,7 +8323,7 @@
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="4" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -8357,7 +8336,7 @@
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="4" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -8366,7 +8345,7 @@
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="4" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -8379,7 +8358,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="4" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -8388,7 +8367,7 @@
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="4" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -8401,7 +8380,7 @@
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -8410,7 +8389,7 @@
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="4" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -8423,7 +8402,7 @@
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="4" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -8432,7 +8411,7 @@
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="4" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -8445,7 +8424,7 @@
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -8454,7 +8433,7 @@
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -8467,7 +8446,7 @@
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="4" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -8476,7 +8455,7 @@
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="4" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -8489,7 +8468,7 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="4" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -8498,7 +8477,7 @@
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="4" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -8511,7 +8490,7 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="4" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -8520,7 +8499,7 @@
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="4" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -8533,7 +8512,7 @@
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -8542,7 +8521,7 @@
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="4" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -8555,7 +8534,7 @@
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="4" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -8564,7 +8543,7 @@
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="4" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -8577,7 +8556,7 @@
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="4" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -8586,7 +8565,7 @@
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="4" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -8599,7 +8578,7 @@
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="4" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -8619,7 +8598,7 @@
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
       <c r="N41" s="4" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -8639,7 +8618,7 @@
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="4" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -8659,7 +8638,7 @@
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="4" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -8679,7 +8658,7 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="4" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -8699,7 +8678,7 @@
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
       <c r="N45" s="4" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -8708,7 +8687,7 @@
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="4" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -8721,7 +8700,7 @@
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="4" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -8730,7 +8709,7 @@
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="4" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -8743,7 +8722,7 @@
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
       <c r="N47" s="4" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -8763,7 +8742,7 @@
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
       <c r="N48" s="4" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -8783,7 +8762,7 @@
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
       <c r="N49" s="4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -8792,7 +8771,7 @@
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -8805,7 +8784,7 @@
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
       <c r="N50" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -8825,7 +8804,7 @@
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
       <c r="N51" s="4" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -8834,7 +8813,7 @@
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="4" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -8847,7 +8826,7 @@
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="4" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -8856,7 +8835,7 @@
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="4" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -8869,7 +8848,7 @@
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -8878,7 +8857,7 @@
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="4" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -8891,7 +8870,7 @@
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
       <c r="N54" s="4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -8900,7 +8879,7 @@
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -8913,7 +8892,7 @@
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
       <c r="N55" s="4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -8922,7 +8901,7 @@
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -8935,7 +8914,7 @@
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
       <c r="N56" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -8944,7 +8923,7 @@
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="4" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -8957,7 +8936,7 @@
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="4" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -8977,7 +8956,7 @@
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
       <c r="N58" s="4" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -8986,7 +8965,7 @@
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="4" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -8999,7 +8978,7 @@
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
       <c r="N59" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -9008,7 +8987,7 @@
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="4" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -9021,7 +9000,7 @@
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
       <c r="N60" s="4" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -9030,7 +9009,7 @@
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="4" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -9043,7 +9022,7 @@
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
       <c r="N61" s="4" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -9052,7 +9031,7 @@
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -9065,7 +9044,7 @@
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
       <c r="N62" s="4" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -9074,7 +9053,7 @@
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -9087,7 +9066,7 @@
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
       <c r="N63" s="4" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -9096,7 +9075,7 @@
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="4" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -9109,7 +9088,7 @@
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
       <c r="N64" s="4" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -9118,7 +9097,7 @@
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="4" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -9131,7 +9110,7 @@
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
       <c r="N65" s="4" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -9140,7 +9119,7 @@
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="4" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -9153,7 +9132,7 @@
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
       <c r="N66" s="4" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -9162,7 +9141,7 @@
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="4" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
@@ -9175,7 +9154,7 @@
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
       <c r="N67" s="4" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -9184,7 +9163,7 @@
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="4" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -9197,7 +9176,7 @@
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
       <c r="N68" s="4" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -9217,7 +9196,7 @@
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
       <c r="N69" s="4" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -9237,7 +9216,7 @@
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
       <c r="N70" s="4" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -9257,7 +9236,7 @@
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
       <c r="N71" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -9266,7 +9245,7 @@
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="4" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -9279,7 +9258,7 @@
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
       <c r="N72" s="4" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -9288,7 +9267,7 @@
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="4" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -9301,7 +9280,7 @@
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
       <c r="N73" s="4" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -9310,7 +9289,7 @@
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="4" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -9323,7 +9302,7 @@
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
       <c r="N74" s="4" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -9332,7 +9311,7 @@
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="4" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -9345,7 +9324,7 @@
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
       <c r="N75" s="4" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -9354,7 +9333,7 @@
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="4" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -9367,7 +9346,7 @@
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
       <c r="N76" s="4" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -9376,7 +9355,7 @@
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="4" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -9389,7 +9368,7 @@
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
       <c r="N77" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -9398,7 +9377,7 @@
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="4" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -9411,7 +9390,7 @@
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
       <c r="N78" s="4" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -9420,7 +9399,7 @@
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="4" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -9433,7 +9412,7 @@
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
       <c r="N79" s="4" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -9442,7 +9421,7 @@
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="4" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -9455,7 +9434,7 @@
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
       <c r="N80" s="4" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -9464,7 +9443,7 @@
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -9477,7 +9456,7 @@
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
       <c r="N81" s="4" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -9486,7 +9465,7 @@
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="4" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -9499,7 +9478,7 @@
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
       <c r="N82" s="4" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -9508,7 +9487,7 @@
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="4" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -9521,7 +9500,7 @@
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
       <c r="N83" s="4" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -9530,7 +9509,7 @@
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="4" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -9543,7 +9522,7 @@
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
       <c r="N84" s="4" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -9552,7 +9531,7 @@
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="4" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -9565,7 +9544,7 @@
       <c r="L85" s="5"/>
       <c r="M85" s="5"/>
       <c r="N85" s="4" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -9574,7 +9553,7 @@
       </c>
       <c r="B86" s="5"/>
       <c r="C86" s="4" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -9587,7 +9566,7 @@
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
       <c r="N86" s="4" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -9596,7 +9575,7 @@
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="4" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -9609,7 +9588,7 @@
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
       <c r="N87" s="4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -9618,7 +9597,7 @@
       </c>
       <c r="B88" s="5"/>
       <c r="C88" s="4" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -9631,7 +9610,7 @@
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
       <c r="N88" s="4" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -9640,7 +9619,7 @@
       </c>
       <c r="B89" s="5"/>
       <c r="C89" s="4" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -9653,7 +9632,7 @@
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
       <c r="N89" s="4" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -9662,7 +9641,7 @@
       </c>
       <c r="B90" s="5"/>
       <c r="C90" s="4" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -9675,7 +9654,7 @@
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
       <c r="N90" s="4" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -9684,7 +9663,7 @@
       </c>
       <c r="B91" s="5"/>
       <c r="C91" s="4" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -9697,7 +9676,7 @@
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
       <c r="N91" s="4" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -9706,7 +9685,7 @@
       </c>
       <c r="B92" s="5"/>
       <c r="C92" s="4" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -9719,7 +9698,7 @@
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
       <c r="N92" s="4" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -9728,7 +9707,7 @@
       </c>
       <c r="B93" s="5"/>
       <c r="C93" s="4" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -9741,7 +9720,7 @@
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
       <c r="N93" s="4" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -9750,7 +9729,7 @@
       </c>
       <c r="B94" s="5"/>
       <c r="C94" s="4" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -9763,7 +9742,7 @@
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
       <c r="N94" s="4" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -9772,7 +9751,7 @@
       </c>
       <c r="B95" s="5"/>
       <c r="C95" s="4" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -9785,7 +9764,7 @@
       <c r="L95" s="5"/>
       <c r="M95" s="5"/>
       <c r="N95" s="4" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -9794,7 +9773,7 @@
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="4" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -9807,7 +9786,7 @@
       <c r="L96" s="5"/>
       <c r="M96" s="5"/>
       <c r="N96" s="4" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -9827,7 +9806,7 @@
       <c r="L97" s="5"/>
       <c r="M97" s="5"/>
       <c r="N97" s="4" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -9836,7 +9815,7 @@
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="4" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -9849,7 +9828,7 @@
       <c r="L98" s="5"/>
       <c r="M98" s="5"/>
       <c r="N98" s="4" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -9858,7 +9837,7 @@
       </c>
       <c r="B99" s="5"/>
       <c r="C99" s="4" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -9871,7 +9850,7 @@
       <c r="L99" s="5"/>
       <c r="M99" s="5"/>
       <c r="N99" s="4" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -9880,7 +9859,7 @@
       </c>
       <c r="B100" s="5"/>
       <c r="C100" s="4" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -9893,7 +9872,7 @@
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
       <c r="N100" s="4" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -9902,7 +9881,7 @@
       </c>
       <c r="B101" s="5"/>
       <c r="C101" s="4" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -9924,7 +9903,7 @@
       </c>
       <c r="B102" s="5"/>
       <c r="C102" s="4" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -9946,7 +9925,7 @@
       </c>
       <c r="B103" s="5"/>
       <c r="C103" s="4" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -9968,7 +9947,7 @@
       </c>
       <c r="B104" s="5"/>
       <c r="C104" s="4" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -9981,16 +9960,16 @@
       <c r="L104" s="5"/>
       <c r="M104" s="5"/>
       <c r="N104" s="4" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="4" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -10003,16 +9982,16 @@
       <c r="L105" s="5"/>
       <c r="M105" s="5"/>
       <c r="N105" s="4" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B106" s="5"/>
       <c r="C106" s="4" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -10025,16 +10004,16 @@
       <c r="L106" s="5"/>
       <c r="M106" s="5"/>
       <c r="N106" s="4" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B107" s="5"/>
       <c r="C107" s="4" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -10047,16 +10026,16 @@
       <c r="L107" s="5"/>
       <c r="M107" s="5"/>
       <c r="N107" s="4" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B108" s="5"/>
       <c r="C108" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -10069,16 +10048,16 @@
       <c r="L108" s="5"/>
       <c r="M108" s="5"/>
       <c r="N108" s="4" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B109" s="5"/>
       <c r="C109" s="4" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -10091,16 +10070,16 @@
       <c r="L109" s="5"/>
       <c r="M109" s="5"/>
       <c r="N109" s="4" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B110" s="5"/>
       <c r="C110" s="4" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -10113,16 +10092,16 @@
       <c r="L110" s="5"/>
       <c r="M110" s="5"/>
       <c r="N110" s="4" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B111" s="5"/>
       <c r="C111" s="4" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -10135,16 +10114,16 @@
       <c r="L111" s="5"/>
       <c r="M111" s="5"/>
       <c r="N111" s="4" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B112" s="5"/>
       <c r="C112" s="4" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -10157,16 +10136,16 @@
       <c r="L112" s="5"/>
       <c r="M112" s="5"/>
       <c r="N112" s="4" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B113" s="5"/>
       <c r="C113" s="4" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -10179,16 +10158,16 @@
       <c r="L113" s="5"/>
       <c r="M113" s="5"/>
       <c r="N113" s="4" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B114" s="5"/>
       <c r="C114" s="4" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -10201,16 +10180,16 @@
       <c r="L114" s="5"/>
       <c r="M114" s="5"/>
       <c r="N114" s="4" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B115" s="5"/>
       <c r="C115" s="4" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -10223,16 +10202,16 @@
       <c r="L115" s="5"/>
       <c r="M115" s="5"/>
       <c r="N115" s="4" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B116" s="5"/>
       <c r="C116" s="4" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -10245,16 +10224,16 @@
       <c r="L116" s="5"/>
       <c r="M116" s="5"/>
       <c r="N116" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B117" s="5"/>
       <c r="C117" s="4" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
@@ -10267,16 +10246,16 @@
       <c r="L117" s="5"/>
       <c r="M117" s="5"/>
       <c r="N117" s="4" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B118" s="5"/>
       <c r="C118" s="4" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -10289,16 +10268,16 @@
       <c r="L118" s="5"/>
       <c r="M118" s="5"/>
       <c r="N118" s="4" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B119" s="5"/>
       <c r="C119" s="4" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -10311,16 +10290,16 @@
       <c r="L119" s="5"/>
       <c r="M119" s="5"/>
       <c r="N119" s="4" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B120" s="5"/>
       <c r="C120" s="4" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -10333,16 +10312,16 @@
       <c r="L120" s="5"/>
       <c r="M120" s="5"/>
       <c r="N120" s="4" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B121" s="5"/>
       <c r="C121" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
@@ -10355,16 +10334,16 @@
       <c r="L121" s="5"/>
       <c r="M121" s="5"/>
       <c r="N121" s="4" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B122" s="5"/>
       <c r="C122" s="4" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
@@ -10377,16 +10356,16 @@
       <c r="L122" s="5"/>
       <c r="M122" s="5"/>
       <c r="N122" s="4" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B123" s="5"/>
       <c r="C123" s="4" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -10399,16 +10378,16 @@
       <c r="L123" s="5"/>
       <c r="M123" s="5"/>
       <c r="N123" s="4" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B124" s="5"/>
       <c r="C124" s="4" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
@@ -10421,16 +10400,16 @@
       <c r="L124" s="5"/>
       <c r="M124" s="5"/>
       <c r="N124" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B125" s="5"/>
       <c r="C125" s="4" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -10443,16 +10422,16 @@
       <c r="L125" s="5"/>
       <c r="M125" s="5"/>
       <c r="N125" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B126" s="5"/>
       <c r="C126" s="4" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -10465,16 +10444,16 @@
       <c r="L126" s="5"/>
       <c r="M126" s="5"/>
       <c r="N126" s="4" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B127" s="5"/>
       <c r="C127" s="4" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -10487,16 +10466,16 @@
       <c r="L127" s="5"/>
       <c r="M127" s="5"/>
       <c r="N127" s="4" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B128" s="5"/>
       <c r="C128" s="4" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -10509,16 +10488,16 @@
       <c r="L128" s="5"/>
       <c r="M128" s="5"/>
       <c r="N128" s="4" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B129" s="5"/>
       <c r="C129" s="4" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -10531,16 +10510,16 @@
       <c r="L129" s="5"/>
       <c r="M129" s="5"/>
       <c r="N129" s="4" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B130" s="5"/>
       <c r="C130" s="4" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -10553,16 +10532,16 @@
       <c r="L130" s="5"/>
       <c r="M130" s="5"/>
       <c r="N130" s="4" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B131" s="5"/>
       <c r="C131" s="4" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -10575,16 +10554,16 @@
       <c r="L131" s="5"/>
       <c r="M131" s="5"/>
       <c r="N131" s="4" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B132" s="5"/>
       <c r="C132" s="4" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -10597,16 +10576,16 @@
       <c r="L132" s="5"/>
       <c r="M132" s="5"/>
       <c r="N132" s="4" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B133" s="5"/>
       <c r="C133" s="4" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -10619,16 +10598,16 @@
       <c r="L133" s="5"/>
       <c r="M133" s="5"/>
       <c r="N133" s="4" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B134" s="5"/>
       <c r="C134" s="4" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -10641,16 +10620,16 @@
       <c r="L134" s="5"/>
       <c r="M134" s="5"/>
       <c r="N134" s="4" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B135" s="5"/>
       <c r="C135" s="4" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -10663,16 +10642,16 @@
       <c r="L135" s="5"/>
       <c r="M135" s="5"/>
       <c r="N135" s="4" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="4" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -10685,16 +10664,16 @@
       <c r="L136" s="5"/>
       <c r="M136" s="5"/>
       <c r="N136" s="4" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B137" s="5"/>
       <c r="C137" s="4" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -10707,16 +10686,16 @@
       <c r="L137" s="5"/>
       <c r="M137" s="5"/>
       <c r="N137" s="4" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B138" s="5"/>
       <c r="C138" s="4" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -10729,16 +10708,16 @@
       <c r="L138" s="5"/>
       <c r="M138" s="5"/>
       <c r="N138" s="4" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B139" s="5"/>
       <c r="C139" s="4" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -10751,12 +10730,12 @@
       <c r="L139" s="5"/>
       <c r="M139" s="5"/>
       <c r="N139" s="4" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -10771,12 +10750,12 @@
       <c r="L140" s="5"/>
       <c r="M140" s="5"/>
       <c r="N140" s="4" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -10791,16 +10770,16 @@
       <c r="L141" s="5"/>
       <c r="M141" s="5"/>
       <c r="N141" s="4" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B142" s="5"/>
       <c r="C142" s="4" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -10813,16 +10792,16 @@
       <c r="L142" s="5"/>
       <c r="M142" s="5"/>
       <c r="N142" s="4" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B143" s="5"/>
       <c r="C143" s="4" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -10835,16 +10814,16 @@
       <c r="L143" s="5"/>
       <c r="M143" s="5"/>
       <c r="N143" s="4" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B144" s="5"/>
       <c r="C144" s="4" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -10857,16 +10836,16 @@
       <c r="L144" s="5"/>
       <c r="M144" s="5"/>
       <c r="N144" s="4" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B145" s="5"/>
       <c r="C145" s="4" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -10879,17 +10858,15 @@
       <c r="L145" s="5"/>
       <c r="M145" s="5"/>
       <c r="N145" s="4" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B146" s="5"/>
-      <c r="C146" s="4" t="s">
-        <v>998</v>
-      </c>
+      <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
@@ -10901,15 +10878,17 @@
       <c r="L146" s="5"/>
       <c r="M146" s="5"/>
       <c r="N146" s="4" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B147" s="5"/>
-      <c r="C147" s="5"/>
+      <c r="C147" s="4" t="s">
+        <v>997</v>
+      </c>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
@@ -10921,16 +10900,16 @@
       <c r="L147" s="5"/>
       <c r="M147" s="5"/>
       <c r="N147" s="4" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B148" s="5"/>
       <c r="C148" s="4" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -10943,17 +10922,15 @@
       <c r="L148" s="5"/>
       <c r="M148" s="5"/>
       <c r="N148" s="4" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B149" s="5"/>
-      <c r="C149" s="4" t="s">
-        <v>1003</v>
-      </c>
+      <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
@@ -10965,12 +10942,12 @@
       <c r="L149" s="5"/>
       <c r="M149" s="5"/>
       <c r="N149" s="4" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -10985,12 +10962,12 @@
       <c r="L150" s="5"/>
       <c r="M150" s="5"/>
       <c r="N150" s="4" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -11005,15 +10982,17 @@
       <c r="L151" s="5"/>
       <c r="M151" s="5"/>
       <c r="N151" s="4" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B152" s="5"/>
-      <c r="C152" s="5"/>
+      <c r="C152" s="4" t="s">
+        <v>1004</v>
+      </c>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
@@ -11025,17 +11004,15 @@
       <c r="L152" s="5"/>
       <c r="M152" s="5"/>
       <c r="N152" s="4" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B153" s="5"/>
-      <c r="C153" s="4" t="s">
-        <v>1008</v>
-      </c>
+      <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
@@ -11047,15 +11024,17 @@
       <c r="L153" s="5"/>
       <c r="M153" s="5"/>
       <c r="N153" s="4" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B154" s="5"/>
-      <c r="C154" s="5"/>
+      <c r="C154" s="4" t="s">
+        <v>1007</v>
+      </c>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
@@ -11067,7 +11046,7 @@
       <c r="L154" s="5"/>
       <c r="M154" s="5"/>
       <c r="N154" s="4" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -11075,9 +11054,7 @@
         <v>529</v>
       </c>
       <c r="B155" s="5"/>
-      <c r="C155" s="4" t="s">
-        <v>1011</v>
-      </c>
+      <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
@@ -11089,12 +11066,12 @@
       <c r="L155" s="5"/>
       <c r="M155" s="5"/>
       <c r="N155" s="4" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="4" t="s">
-        <v>533</v>
+        <v>0</v>
       </c>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -11109,12 +11086,12 @@
       <c r="L156" s="5"/>
       <c r="M156" s="5"/>
       <c r="N156" s="4" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="4" t="s">
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -11129,16 +11106,16 @@
       <c r="L157" s="5"/>
       <c r="M157" s="5"/>
       <c r="N157" s="4" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B158" s="5"/>
       <c r="C158" s="4" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -11151,16 +11128,16 @@
       <c r="L158" s="5"/>
       <c r="M158" s="5"/>
       <c r="N158" s="4" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="159" spans="1:14">
       <c r="A159" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B159" s="5"/>
       <c r="C159" s="4" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
@@ -11173,16 +11150,16 @@
       <c r="L159" s="5"/>
       <c r="M159" s="5"/>
       <c r="N159" s="4" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B160" s="5"/>
       <c r="C160" s="4" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
@@ -11195,16 +11172,16 @@
       <c r="L160" s="5"/>
       <c r="M160" s="5"/>
       <c r="N160" s="4" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B161" s="5"/>
       <c r="C161" s="4" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -11217,16 +11194,16 @@
       <c r="L161" s="5"/>
       <c r="M161" s="5"/>
       <c r="N161" s="4" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B162" s="5"/>
       <c r="C162" s="4" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -11239,16 +11216,16 @@
       <c r="L162" s="5"/>
       <c r="M162" s="5"/>
       <c r="N162" s="4" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B163" s="5"/>
       <c r="C163" s="4" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -11261,16 +11238,16 @@
       <c r="L163" s="5"/>
       <c r="M163" s="5"/>
       <c r="N163" s="4" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B164" s="5"/>
       <c r="C164" s="4" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -11283,16 +11260,16 @@
       <c r="L164" s="5"/>
       <c r="M164" s="5"/>
       <c r="N164" s="4" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B165" s="5"/>
       <c r="C165" s="4" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -11305,16 +11282,16 @@
       <c r="L165" s="5"/>
       <c r="M165" s="5"/>
       <c r="N165" s="4" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="166" spans="1:14">
       <c r="A166" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B166" s="5"/>
       <c r="C166" s="4" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -11327,16 +11304,16 @@
       <c r="L166" s="5"/>
       <c r="M166" s="5"/>
       <c r="N166" s="4" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="167" spans="1:14">
       <c r="A167" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B167" s="5"/>
       <c r="C167" s="4" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -11349,16 +11326,16 @@
       <c r="L167" s="5"/>
       <c r="M167" s="5"/>
       <c r="N167" s="4" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B168" s="5"/>
       <c r="C168" s="4" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -11371,16 +11348,16 @@
       <c r="L168" s="5"/>
       <c r="M168" s="5"/>
       <c r="N168" s="4" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B169" s="5"/>
       <c r="C169" s="4" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -11393,16 +11370,16 @@
       <c r="L169" s="5"/>
       <c r="M169" s="5"/>
       <c r="N169" s="4" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B170" s="5"/>
       <c r="C170" s="4" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -11415,7 +11392,7 @@
       <c r="L170" s="5"/>
       <c r="M170" s="5"/>
       <c r="N170" s="4" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="171" spans="1:14">
@@ -11424,7 +11401,7 @@
       </c>
       <c r="B171" s="5"/>
       <c r="C171" s="4" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
@@ -11437,16 +11414,16 @@
       <c r="L171" s="5"/>
       <c r="M171" s="5"/>
       <c r="N171" s="4" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="172" spans="1:14">
       <c r="A172" s="4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B172" s="5"/>
       <c r="C172" s="4" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -11459,16 +11436,16 @@
       <c r="L172" s="5"/>
       <c r="M172" s="5"/>
       <c r="N172" s="4" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="173" spans="1:14">
       <c r="A173" s="4" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B173" s="5"/>
       <c r="C173" s="4" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
@@ -11481,16 +11458,16 @@
       <c r="L173" s="5"/>
       <c r="M173" s="5"/>
       <c r="N173" s="4" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="174" spans="1:14">
       <c r="A174" s="4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B174" s="5"/>
       <c r="C174" s="4" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
@@ -11503,16 +11480,16 @@
       <c r="L174" s="5"/>
       <c r="M174" s="5"/>
       <c r="N174" s="4" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="175" spans="1:14">
       <c r="A175" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B175" s="5"/>
       <c r="C175" s="4" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
@@ -11525,16 +11502,16 @@
       <c r="L175" s="5"/>
       <c r="M175" s="5"/>
       <c r="N175" s="4" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B176" s="5"/>
       <c r="C176" s="4" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
@@ -11547,16 +11524,16 @@
       <c r="L176" s="5"/>
       <c r="M176" s="5"/>
       <c r="N176" s="4" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="177" spans="1:14">
       <c r="A177" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B177" s="5"/>
       <c r="C177" s="4" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
@@ -11569,16 +11546,16 @@
       <c r="L177" s="5"/>
       <c r="M177" s="5"/>
       <c r="N177" s="4" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="178" spans="1:14">
       <c r="A178" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B178" s="5"/>
       <c r="C178" s="4" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
@@ -11591,16 +11568,16 @@
       <c r="L178" s="5"/>
       <c r="M178" s="5"/>
       <c r="N178" s="4" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B179" s="5"/>
       <c r="C179" s="4" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
@@ -11613,16 +11590,16 @@
       <c r="L179" s="5"/>
       <c r="M179" s="5"/>
       <c r="N179" s="4" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="180" spans="1:14">
       <c r="A180" s="4" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B180" s="5"/>
       <c r="C180" s="4" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
@@ -11635,16 +11612,16 @@
       <c r="L180" s="5"/>
       <c r="M180" s="5"/>
       <c r="N180" s="4" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="181" spans="1:14">
       <c r="A181" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B181" s="5"/>
       <c r="C181" s="4" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
@@ -11657,16 +11634,16 @@
       <c r="L181" s="5"/>
       <c r="M181" s="5"/>
       <c r="N181" s="4" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="182" spans="1:14">
       <c r="A182" s="4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B182" s="5"/>
       <c r="C182" s="4" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
@@ -11679,16 +11656,16 @@
       <c r="L182" s="5"/>
       <c r="M182" s="5"/>
       <c r="N182" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="4" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B183" s="5"/>
       <c r="C183" s="4" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
@@ -11701,16 +11678,16 @@
       <c r="L183" s="5"/>
       <c r="M183" s="5"/>
       <c r="N183" s="4" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="4" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B184" s="5"/>
       <c r="C184" s="4" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
@@ -11723,16 +11700,16 @@
       <c r="L184" s="5"/>
       <c r="M184" s="5"/>
       <c r="N184" s="4" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="4" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B185" s="5"/>
       <c r="C185" s="4" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
@@ -11745,16 +11722,16 @@
       <c r="L185" s="5"/>
       <c r="M185" s="5"/>
       <c r="N185" s="4" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B186" s="5"/>
       <c r="C186" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
@@ -11767,16 +11744,16 @@
       <c r="L186" s="5"/>
       <c r="M186" s="5"/>
       <c r="N186" s="4" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B187" s="5"/>
       <c r="C187" s="4" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
@@ -11789,16 +11766,16 @@
       <c r="L187" s="5"/>
       <c r="M187" s="5"/>
       <c r="N187" s="4" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B188" s="5"/>
       <c r="C188" s="4" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
@@ -11811,16 +11788,16 @@
       <c r="L188" s="5"/>
       <c r="M188" s="5"/>
       <c r="N188" s="4" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="4" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B189" s="5"/>
       <c r="C189" s="4" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
@@ -11833,16 +11810,16 @@
       <c r="L189" s="5"/>
       <c r="M189" s="5"/>
       <c r="N189" s="4" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="4" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B190" s="5"/>
       <c r="C190" s="4" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
@@ -11855,16 +11832,16 @@
       <c r="L190" s="5"/>
       <c r="M190" s="5"/>
       <c r="N190" s="4" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="4" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B191" s="5"/>
       <c r="C191" s="4" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
@@ -11877,16 +11854,16 @@
       <c r="L191" s="5"/>
       <c r="M191" s="5"/>
       <c r="N191" s="4" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="4" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B192" s="5"/>
       <c r="C192" s="4" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
@@ -11899,16 +11876,16 @@
       <c r="L192" s="5"/>
       <c r="M192" s="5"/>
       <c r="N192" s="4" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="193" spans="1:14">
       <c r="A193" s="4" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B193" s="5"/>
       <c r="C193" s="4" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
@@ -11921,16 +11898,16 @@
       <c r="L193" s="5"/>
       <c r="M193" s="5"/>
       <c r="N193" s="4" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="194" spans="1:14">
       <c r="A194" s="4" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B194" s="5"/>
       <c r="C194" s="4" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
@@ -11943,16 +11920,16 @@
       <c r="L194" s="5"/>
       <c r="M194" s="5"/>
       <c r="N194" s="4" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="4" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B195" s="5"/>
       <c r="C195" s="4" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
@@ -11965,16 +11942,16 @@
       <c r="L195" s="5"/>
       <c r="M195" s="5"/>
       <c r="N195" s="4" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="4" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B196" s="5"/>
       <c r="C196" s="4" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
@@ -11987,16 +11964,16 @@
       <c r="L196" s="5"/>
       <c r="M196" s="5"/>
       <c r="N196" s="4" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B197" s="5"/>
       <c r="C197" s="4" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
@@ -12009,16 +11986,16 @@
       <c r="L197" s="5"/>
       <c r="M197" s="5"/>
       <c r="N197" s="4" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="4" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B198" s="5"/>
       <c r="C198" s="4" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
@@ -12031,16 +12008,16 @@
       <c r="L198" s="5"/>
       <c r="M198" s="5"/>
       <c r="N198" s="4" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="4" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B199" s="5"/>
       <c r="C199" s="4" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
@@ -12053,16 +12030,16 @@
       <c r="L199" s="5"/>
       <c r="M199" s="5"/>
       <c r="N199" s="4" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="200" spans="1:14">
       <c r="A200" s="4" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B200" s="5"/>
       <c r="C200" s="4" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
@@ -12075,16 +12052,16 @@
       <c r="L200" s="5"/>
       <c r="M200" s="5"/>
       <c r="N200" s="4" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="4" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B201" s="5"/>
       <c r="C201" s="4" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
@@ -12097,16 +12074,16 @@
       <c r="L201" s="5"/>
       <c r="M201" s="5"/>
       <c r="N201" s="4" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="202" spans="1:14">
       <c r="A202" s="4" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B202" s="5"/>
       <c r="C202" s="4" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
@@ -12119,16 +12096,16 @@
       <c r="L202" s="5"/>
       <c r="M202" s="5"/>
       <c r="N202" s="4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="4" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B203" s="5"/>
       <c r="C203" s="4" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
@@ -12141,16 +12118,16 @@
       <c r="L203" s="5"/>
       <c r="M203" s="5"/>
       <c r="N203" s="4" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="204" spans="1:14">
       <c r="A204" s="4" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B204" s="5"/>
       <c r="C204" s="4" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
@@ -12163,16 +12140,16 @@
       <c r="L204" s="5"/>
       <c r="M204" s="5"/>
       <c r="N204" s="4" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="4" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B205" s="5"/>
       <c r="C205" s="4" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
@@ -12185,16 +12162,16 @@
       <c r="L205" s="5"/>
       <c r="M205" s="5"/>
       <c r="N205" s="4" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="206" spans="1:14">
       <c r="A206" s="4" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B206" s="5"/>
       <c r="C206" s="4" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
@@ -12207,16 +12184,16 @@
       <c r="L206" s="5"/>
       <c r="M206" s="5"/>
       <c r="N206" s="4" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="4" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B207" s="5"/>
       <c r="C207" s="4" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
@@ -12229,12 +12206,12 @@
       <c r="L207" s="5"/>
       <c r="M207" s="5"/>
       <c r="N207" s="4" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="208" spans="1:14">
       <c r="A208" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -12249,12 +12226,12 @@
       <c r="L208" s="5"/>
       <c r="M208" s="5"/>
       <c r="N208" s="4" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="209" spans="1:14">
       <c r="A209" s="4" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -12269,12 +12246,12 @@
       <c r="L209" s="5"/>
       <c r="M209" s="5"/>
       <c r="N209" s="4" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="210" spans="1:14">
       <c r="A210" s="4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -12289,12 +12266,12 @@
       <c r="L210" s="5"/>
       <c r="M210" s="5"/>
       <c r="N210" s="4" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -12309,12 +12286,12 @@
       <c r="L211" s="5"/>
       <c r="M211" s="5"/>
       <c r="N211" s="4" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="212" spans="1:14">
       <c r="A212" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -12329,12 +12306,12 @@
       <c r="L212" s="5"/>
       <c r="M212" s="5"/>
       <c r="N212" s="4" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="213" spans="1:14">
       <c r="A213" s="4" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -12349,12 +12326,12 @@
       <c r="L213" s="5"/>
       <c r="M213" s="5"/>
       <c r="N213" s="4" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="214" spans="1:14">
       <c r="A214" s="4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -12369,12 +12346,12 @@
       <c r="L214" s="5"/>
       <c r="M214" s="5"/>
       <c r="N214" s="4" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -12389,12 +12366,12 @@
       <c r="L215" s="5"/>
       <c r="M215" s="5"/>
       <c r="N215" s="4" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="216" spans="1:14">
       <c r="A216" s="4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -12409,16 +12386,16 @@
       <c r="L216" s="5"/>
       <c r="M216" s="5"/>
       <c r="N216" s="4" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B217" s="5"/>
       <c r="C217" s="4" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
@@ -12431,12 +12408,12 @@
       <c r="L217" s="5"/>
       <c r="M217" s="5"/>
       <c r="N217" s="4" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -12451,12 +12428,12 @@
       <c r="L218" s="5"/>
       <c r="M218" s="5"/>
       <c r="N218" s="4" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -12471,12 +12448,12 @@
       <c r="L219" s="5"/>
       <c r="M219" s="5"/>
       <c r="N219" s="4" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -12491,12 +12468,12 @@
       <c r="L220" s="5"/>
       <c r="M220" s="5"/>
       <c r="N220" s="4" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="4" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -12511,12 +12488,12 @@
       <c r="L221" s="5"/>
       <c r="M221" s="5"/>
       <c r="N221" s="4" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="4" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -12531,12 +12508,12 @@
       <c r="L222" s="5"/>
       <c r="M222" s="5"/>
       <c r="N222" s="4" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="4" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -12551,12 +12528,12 @@
       <c r="L223" s="5"/>
       <c r="M223" s="5"/>
       <c r="N223" s="4" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="224" spans="1:14">
       <c r="A224" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -12571,12 +12548,12 @@
       <c r="L224" s="5"/>
       <c r="M224" s="5"/>
       <c r="N224" s="4" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="225" spans="1:14">
       <c r="A225" s="4" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -12591,16 +12568,16 @@
       <c r="L225" s="5"/>
       <c r="M225" s="5"/>
       <c r="N225" s="4" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="226" spans="1:14">
       <c r="A226" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B226" s="5"/>
       <c r="C226" s="4" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
@@ -12613,16 +12590,16 @@
       <c r="L226" s="5"/>
       <c r="M226" s="5"/>
       <c r="N226" s="4" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B227" s="5"/>
       <c r="C227" s="4" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
@@ -12635,16 +12612,16 @@
       <c r="L227" s="5"/>
       <c r="M227" s="5"/>
       <c r="N227" s="4" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="228" spans="1:14">
       <c r="A228" s="4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B228" s="5"/>
       <c r="C228" s="4" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="D228" s="5"/>
       <c r="E228" s="5"/>
@@ -12657,16 +12634,16 @@
       <c r="L228" s="5"/>
       <c r="M228" s="5"/>
       <c r="N228" s="4" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="229" spans="1:14">
       <c r="A229" s="4" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B229" s="5"/>
       <c r="C229" s="4" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
@@ -12679,16 +12656,16 @@
       <c r="L229" s="5"/>
       <c r="M229" s="5"/>
       <c r="N229" s="4" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="230" spans="1:14">
       <c r="A230" s="4" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B230" s="5"/>
       <c r="C230" s="4" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
@@ -12701,16 +12678,16 @@
       <c r="L230" s="5"/>
       <c r="M230" s="5"/>
       <c r="N230" s="4" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="231" spans="1:14">
       <c r="A231" s="4" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B231" s="5"/>
       <c r="C231" s="4" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
@@ -12723,16 +12700,16 @@
       <c r="L231" s="5"/>
       <c r="M231" s="5"/>
       <c r="N231" s="4" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="232" spans="1:14">
       <c r="A232" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B232" s="5"/>
       <c r="C232" s="4" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
@@ -12745,16 +12722,16 @@
       <c r="L232" s="5"/>
       <c r="M232" s="5"/>
       <c r="N232" s="4" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="233" spans="1:14">
       <c r="A233" s="4" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B233" s="5"/>
       <c r="C233" s="4" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="D233" s="5"/>
       <c r="E233" s="5"/>
@@ -12767,16 +12744,16 @@
       <c r="L233" s="5"/>
       <c r="M233" s="5"/>
       <c r="N233" s="4" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="234" spans="1:14">
       <c r="A234" s="4" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B234" s="5"/>
       <c r="C234" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
@@ -12789,16 +12766,16 @@
       <c r="L234" s="5"/>
       <c r="M234" s="5"/>
       <c r="N234" s="4" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="4" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B235" s="5"/>
       <c r="C235" s="4" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
@@ -12811,16 +12788,16 @@
       <c r="L235" s="5"/>
       <c r="M235" s="5"/>
       <c r="N235" s="4" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="236" spans="1:14">
       <c r="A236" s="4" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B236" s="5"/>
       <c r="C236" s="4" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
@@ -12833,16 +12810,16 @@
       <c r="L236" s="5"/>
       <c r="M236" s="5"/>
       <c r="N236" s="4" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="237" spans="1:14">
       <c r="A237" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B237" s="5"/>
       <c r="C237" s="4" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
@@ -12855,16 +12832,16 @@
       <c r="L237" s="5"/>
       <c r="M237" s="5"/>
       <c r="N237" s="4" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="238" spans="1:14">
       <c r="A238" s="4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B238" s="5"/>
       <c r="C238" s="4" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
@@ -12877,12 +12854,12 @@
       <c r="L238" s="5"/>
       <c r="M238" s="5"/>
       <c r="N238" s="4" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="4" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -12897,12 +12874,12 @@
       <c r="L239" s="5"/>
       <c r="M239" s="5"/>
       <c r="N239" s="4" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -12917,16 +12894,16 @@
       <c r="L240" s="5"/>
       <c r="M240" s="5"/>
       <c r="N240" s="4" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="241" spans="1:14">
       <c r="A241" s="4" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B241" s="5"/>
       <c r="C241" s="4" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
@@ -12939,12 +12916,12 @@
       <c r="L241" s="5"/>
       <c r="M241" s="5"/>
       <c r="N241" s="4" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="242" spans="1:14">
       <c r="A242" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -12959,7 +12936,7 @@
       <c r="L242" s="5"/>
       <c r="M242" s="5"/>
       <c r="N242" s="4" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
   </sheetData>
